--- a/experiment_results/143594P2.xlsx
+++ b/experiment_results/143594P2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1087"/>
+  <dimension ref="A1:I1102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,7 +590,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -771,7 +771,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -846,7 +846,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'City Tours']</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1821,7 +1821,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'City Tours']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -2271,7 +2271,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Category: ['Health and Fitness Camps', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Health and Fitness Camps']</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2571,7 +2571,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', '']</t>
+          <t>Category: ['', 'City Tours']</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -3021,7 +3021,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3846,7 +3846,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -4146,7 +4146,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -4446,7 +4446,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -4971,7 +4971,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -6021,7 +6021,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -7071,7 +7071,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Dining Experiences']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B439" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7596,7 +7596,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'City Tours']</t>
         </is>
       </c>
       <c r="B474" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8046,7 +8046,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Hiking']</t>
         </is>
       </c>
       <c r="B504" t="inlineStr"/>
@@ -8121,7 +8121,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'City Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -8196,7 +8196,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Eco-Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B514" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8346,7 +8346,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B524" t="inlineStr"/>
@@ -8571,7 +8571,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Festivals', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Cultural Festivals']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9621,7 +9621,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10071,7 +10071,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'City Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B639" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10671,7 +10671,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B679" t="inlineStr"/>
@@ -11196,7 +11196,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
         </is>
       </c>
       <c r="B714" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'City Tours']</t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Eco-Tours']</t>
+          <t>Category: ['Culinary Tours', 'Eco-Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -11871,7 +11871,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -11946,7 +11946,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B764" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B769" t="inlineStr"/>
@@ -12171,7 +12171,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B779" t="inlineStr"/>
@@ -12246,7 +12246,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Category: ['Meditation and Yoga Retreats', 'Health and Fitness Camps']</t>
+          <t>Category: ['Health and Fitness Camps', 'Meditation and Yoga Retreats']</t>
         </is>
       </c>
       <c r="B784" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12771,7 +12771,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13371,7 +13371,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Aerial Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Aerial Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -13671,7 +13671,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'City Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13746,7 +13746,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -14121,7 +14121,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14317,7 +14317,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 334732P2</t>
+          <t>PRODUCTCODE: 6874WINES</t>
         </is>
       </c>
       <c r="B922" t="inlineStr"/>
@@ -14332,7 +14332,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>Summarized description: The Cava region of Penedes is home to 3 family wineries. Tourists will learn about cava, wine and local varieties. Only 1 hour drive from Barcelona.</t>
+          <t>Summarized description: Ride a comfortable ebike along the Barcelona Coastline to arrive to the village of Alella. Discover the Mediterranean towns of the Maresme Region with its fishing harbours and historical sites. Taste 4 excellent wines and enjoy a countryside lunch surrounded by nature.</t>
         </is>
       </c>
       <c r="B923" t="inlineStr"/>
@@ -14347,7 +14347,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Title: Barcelona: 3 Wineries in one-day, with hotel pick up and lunch</t>
+          <t>Title: Barcelona eBike Beach Tour to Vineyards, Wine Tasting &amp; Picnic</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14362,7 +14362,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>TotalReviews: 89</t>
+          <t>TotalReviews: 115</t>
         </is>
       </c>
       <c r="B925" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B926" t="inlineStr"/>
@@ -14392,7 +14392,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3142BCNCAVAWINE</t>
+          <t>PRODUCTCODE: 7676P42</t>
         </is>
       </c>
       <c r="B927" t="inlineStr"/>
@@ -14407,7 +14407,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>Summarized description: Tour three different kinds of wineries in the Penedés region. Learn traditional and modern methods for producing wine and cava. The small group size of this tour ensures you'll spend an intimate day with like-minded wine lovers.</t>
+          <t>Summarized description: Explore Barcelona's hidden gems and iconic landmarks on an exciting e-bike tour. Immerse yourself in the art of winemaking with a visit to a picturesque vineyard. Then, unwind and find serenity aboard a luxurious sailing yacht, cruising along the stunning Barcelona coastline.</t>
         </is>
       </c>
       <c r="B928" t="inlineStr"/>
@@ -14422,7 +14422,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Title: Penedes Tour: 3 Wineries with Tasting Small Group from Barcelona</t>
+          <t>Title: Ebike Tour, Winery, Wine Tasting &amp; Sailing Experience(car option)</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14437,7 +14437,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>TotalReviews: 67</t>
+          <t>TotalReviews: 75</t>
         </is>
       </c>
       <c r="B930" t="inlineStr"/>
@@ -14452,7 +14452,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Water Sports', 'City Tours']</t>
         </is>
       </c>
       <c r="B931" t="inlineStr"/>
@@ -14467,7 +14467,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8693P2</t>
+          <t>PRODUCTCODE: 131444P1</t>
         </is>
       </c>
       <c r="B932" t="inlineStr"/>
@@ -14482,7 +14482,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>Summarized description: 3-hour wine tour takes place at a family-run vineyard in the celebrated wine-growing region of Alt Penedès. You will first enjoy a guided tour of the vineyards, the cellars and the warehouse and then some wine-tasting of several local wines.</t>
+          <t>Summarized description: This is a nice cycling stage and also including the best views over the city. We will adapt the distance and difficulty to your needs. From 60 to 85 km including 3-4 climbs.</t>
         </is>
       </c>
       <c r="B933" t="inlineStr"/>
@@ -14497,7 +14497,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Title: Viticulture and Wine-Tasting 3-Hour Trip from Barcelona</t>
+          <t>Title: The hills around Barcelona by roadbike, private tour. Pick up/drop off included.</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14512,7 +14512,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>TotalReviews: 45</t>
+          <t>TotalReviews: 34</t>
         </is>
       </c>
       <c r="B935" t="inlineStr"/>
@@ -14527,7 +14527,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Adventure Sports', 'Health and Fitness Camps']</t>
         </is>
       </c>
       <c r="B936" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P357</t>
+          <t>PRODUCTCODE: 9866P43</t>
         </is>
       </c>
       <c r="B937" t="inlineStr"/>
@@ -14557,7 +14557,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>Summarized description: The Penedès region is located between Villafranca del Pensès and the rocky mountains of the Garraf natural park. You will visit 2 local family wineries and learn about organic winemaking and the biodynamic techniques used. The tasting includes at least 3 different wines to choose from.</t>
+          <t>Summarized description: Live a day in the warmer shores of Catalonia. You will first travel to Tarragona, also known by its ancient name 'Tarraco', and then make your way to beautiful Sitges.</t>
         </is>
       </c>
       <c r="B938" t="inlineStr"/>
@@ -14572,7 +14572,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Title: Private Day Trip from Barcelona: Wine Tasting in the Vineyards</t>
+          <t>Title: Private Tarragona and Sitges Tour with Hotel pick-up from Barcelona</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14587,7 +14587,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>TotalReviews: 24</t>
+          <t>TotalReviews: 32</t>
         </is>
       </c>
       <c r="B940" t="inlineStr"/>
@@ -14602,7 +14602,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B941" t="inlineStr"/>
@@ -14617,7 +14617,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 189202P1</t>
+          <t>PRODUCTCODE: 66330P1</t>
         </is>
       </c>
       <c r="B942" t="inlineStr"/>
@@ -14632,7 +14632,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>Summarized description: The Penedes Wine Region is located next to Sitges in southern Spain. The region is known for its organic wines, local traditions and regional food.</t>
+          <t>Summarized description: Discover all the secrets of making wine and cava with this 7-hour small group tour. Stroll around the most beautiful wine routes of the Penedès wine region. Enjoy 2 premium tastings of organic wines &amp; cavas!</t>
         </is>
       </c>
       <c r="B943" t="inlineStr"/>
@@ -14647,7 +14647,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Title: Genuine Wine Tasting &amp; Heritage</t>
+          <t>Title: From Barcelona: E-Bike Tour in the vineyards with 2 Wineries</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14662,7 +14662,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>TotalReviews: 18</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B945" t="inlineStr"/>
@@ -14677,7 +14677,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B946" t="inlineStr"/>
@@ -14692,7 +14692,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66178P8</t>
+          <t>PRODUCTCODE: 9927P2</t>
         </is>
       </c>
       <c r="B947" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>Summarized description: Penedés is one of the most important wine and cava regions in Catalonia. It is also one the most ancient viticulture areas in Europe.</t>
+          <t>Summarized description: We are lovers of cycling, nature and wine and so we invite you to come to Penedès to enjoy an unforgettable day cycling among vineyards on our favorite means of transportation. We are visiting an ecologic winery and tasting the best wines and Cavas.</t>
         </is>
       </c>
       <c r="B948" t="inlineStr"/>
@@ -14722,7 +14722,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Title: Private Wine &amp; Cava Tasting Tour In Penedés Region with hotel pick up</t>
+          <t xml:space="preserve">Title: Barcelona: Wine e-Bike Half DayTour in Penedès </t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14737,7 +14737,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 10</t>
         </is>
       </c>
       <c r="B950" t="inlineStr"/>
@@ -14752,7 +14752,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Adventure Sports', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B951" t="inlineStr"/>
@@ -14767,7 +14767,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66330P1</t>
+          <t>PRODUCTCODE: 16637P10</t>
         </is>
       </c>
       <c r="B952" t="inlineStr"/>
@@ -14782,7 +14782,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Summarized description: Discover all the secrets of making wine and cava with this 7-hour small group tour. Stroll around the most beautiful wine routes of the Penedès wine region. Enjoy 2 premium tastings of organic wines &amp; cavas!</t>
+          <t>Summarized description: Barcelona to Sitges is a great way to experience the Catalan countryside. The two-hour tour includes a wine tasting and a visit to a local bodega.</t>
         </is>
       </c>
       <c r="B953" t="inlineStr"/>
@@ -14797,7 +14797,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Title: From Barcelona: E-Bike Tour in the vineyards with 2 Wineries</t>
+          <t xml:space="preserve">Title: Cava Wineyard &amp; Sitges Day Trip from Barcelona </t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14812,7 +14812,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B955" t="inlineStr"/>
@@ -14842,7 +14842,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9927P2</t>
+          <t>PRODUCTCODE: 9927P1</t>
         </is>
       </c>
       <c r="B957" t="inlineStr"/>
@@ -14857,7 +14857,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Summarized description: We are lovers of cycling, nature and wine and so we invite you to come to Penedès to enjoy an unforgettable day cycling among vineyards on our favorite means of transportation. We are visiting an ecologic winery and tasting the best wines and Cavas.</t>
+          <t>Summarized description: We are lovers of cycling, nature and wine. We are visiting an ecologic winery and tasting the best wines and Cavas. There is nothing better than eating a brunch to taste local products.</t>
         </is>
       </c>
       <c r="B958" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona: Wine e-Bike Half DayTour in Penedès </t>
+          <t>Title: Barcelona: Wine &amp; eBike Full Day Guided Tour in Penedès</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14887,7 +14887,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B960" t="inlineStr"/>
@@ -14902,7 +14902,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 16637P10</t>
+          <t>PRODUCTCODE: 87696P2</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -14932,7 +14932,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>Summarized description: Barcelona to Sitges is a great way to experience the Catalan countryside. The two-hour tour includes a wine tasting and a visit to a local bodega.</t>
+          <t>Summarized description: Enjoy a wonderful 4hr bike ride through Barcelona. Learn about Catalan customs, culture, history and architecture. Let yourself be swept away by the beautiful sights, such as Sagrada Familia.</t>
         </is>
       </c>
       <c r="B963" t="inlineStr"/>
@@ -14947,7 +14947,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Cava Wineyard &amp; Sitges Day Trip from Barcelona </t>
+          <t>Title: Barcelona Half-Day Bike Tour</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14962,7 +14962,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B965" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9927P1</t>
+          <t>PRODUCTCODE: 89313P1</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Summarized description: We are lovers of cycling, nature and wine. We are visiting an ecologic winery and tasting the best wines and Cavas. There is nothing better than eating a brunch to taste local products.</t>
+          <t>Summarized description: Discover Barcelona on a bike tour. Ride over bike lanes, pedestrian paths, and parks and gardens to the city's most beautiful sights. Admire the old architecture, enjoy the views from the beach and discover the hidden corners of the city.</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Title: Barcelona: Wine &amp; eBike Full Day Guided Tour in Penedès</t>
+          <t>Title: Barcelona: Highlights Bike Tour</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Adventure Sports']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 86598P1</t>
+          <t>PRODUCTCODE: 7728P3</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Summarized description: Penedès is a small town in the south of France. The town is famous for its cava, a sparkling wine made from the same grape as champagne.</t>
+          <t>Summarized description: 4-hour private electric bike tour cycling through World Heritage monuments and attractions of Barcelona. Make the most of your visit to this city and admire all its main highlights in an effortless way.</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Title: Brunch among vineyards</t>
+          <t xml:space="preserve">Title: Private e-Bike Tour | Barcelona Highlights </t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15112,7 +15112,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B975" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 155988P1</t>
+          <t>PRODUCTCODE: 191356P1</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Summarized description: Two of the oldest Wineries in Penedés wine region, both leaders on producing excellent organic wines. You will learn how they mix traditional methods, inherited from ancestors for decades and innovative process.</t>
+          <t>Summarized description: Barcelona by bike tours are designed to give you the most unique experience. Each of our individual Barcelona by Bike tours is designed for giving you the best possible experience.</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: WINE &amp; CAVA TOUR PENEDÉS: Visit 2 Wineries, wine tasting &amp; Tapas lunch </t>
+          <t>Title: Your individual Barcelona by bike tour</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66330P2</t>
+          <t>PRODUCTCODE: 6884COASTLINE</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: Discover all the secrets of making wine and cava with this 4-hour small group E-bike tour. Stroll around the most beautiful wine routes of Penedès with a wonderful view of the "Massif de Montserrat" Visit an authentic family-owned winery and enjoy 2 premium tastings of organic wines &amp; cavas.</t>
+          <t>Summarized description: The 3-hour bike tour takes you off the well-trodden tourist path. Glide through Barcelona's vibrant seafront neighborhoods including El Poblenou and Barceloneta. Pass by the Torre Agbar and sandy beaches on your way to the Olympic Village.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Title: E-Bike Tour in the vineyards with 2 Wineries</t>
+          <t>Title: Barcelona Coastline Bike Tour</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P118</t>
+          <t>PRODUCTCODE: 50881P5</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: Vineyards in the Penedes region have been cultivating grapes since 1385. The region is famous for its Cava, a sparkling wine made from grape juice.</t>
+          <t>Summarized description: The north Penedès, mosaic of vineyards and wooded streams, awaits us in this journey filled with small caves, scattered farmhouses and churches. Discover the essence of a wine region that offers much more than what it seems.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Title: Penedes and Cava Winery Small Group Tour</t>
+          <t>Title: Wine Country Bike Tour (Rent roadbike, Visit winery &amp; Lunch)</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 50881P5</t>
+          <t>PRODUCTCODE: 172305P76</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Summarized description: The north Penedès, mosaic of vineyards and wooded streams, awaits us in this journey filled with small caves, scattered farmhouses and churches. Discover the essence of a wine region that offers much more than what it seems.</t>
+          <t>Summarized description: Meet Alella with a small group of people, taste the wines from her famous family winery, and stroll through her centuries-old vineyards. Enjoy a unique wine experience and marvel at the beautiful landscape of the Mediterranean Sea.</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Title: Wine Country Bike Tour (Rent roadbike, Visit winery &amp; Lunch)</t>
+          <t>Title:  E-Bike Barcelona Coast and Vineyards With Wine Tasting (PRIVATE)</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P46</t>
+          <t>PRODUCTCODE: 9866P120</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: Private tour takes you to the verdant vineyards of the Penedes region. At the foot of the Montserrat Mountain, visit a family run vineyards that has been cultivating grapes since 1385.</t>
+          <t>Summarized description: E-bike ride through the emblematic Mediterranean coast of Barcelona. Visit renowned neighborhoods and pedal through the traditional towns Alella, El Masnou and Badalona en route to the Alta Alella Winery.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: Private Cava and Vineyards Half-Day Tour with Hotel pick-up from Barcelona</t>
+          <t>Title: Wine tasting &amp; E-bike Barcelona's coastline Small Group tour</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P28</t>
+          <t>PRODUCTCODE: 17377P45</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Penedès has one of the widest varieties of grapes in any wine region in the world. Spend the morning with a visit to the vineyards and wineries in the center of Catalonia.</t>
+          <t>Summarized description: Sitges was once a fishing village and today is a fashionable seaside community full of history, architecture, restaurants and boutiques. Head to the winery region to enjoy a meal of regional products and finish the day with a wine and chocolate pairing tasting.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Title: Cava Experience Penedès</t>
+          <t xml:space="preserve">Title: Private Sitges, Wine Tasting &amp; Chocolate Tour + Local Lunch </t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 50881P6</t>
+          <t>PRODUCTCODE: 66178P3</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Oriol Rossell cavas will expect us at its cellars, where we enter the world of wine in a family farm dedicated to viticulture since the seventeenth century. From there the road will lead us through the Castellet Castle and the Foix reservoir, to the highest point of the day.</t>
+          <t>Summarized description: The winery is located inside a beautiful 14th century masia, near the town of Alella. The grapes are collected by hand in the vineyards. Then, gentle pressing is carried out and the free run juice is settle and fermented.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Penèdes Cava &amp; Wine Bike Tour (Rent Bicycle &amp; 2 visits to wineries)</t>
+          <t>Title: Private Wine Tasting Tour with Picnic lunch and hotel pick up near Barcelona</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 50881P4</t>
+          <t>PRODUCTCODE: 50881P6</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: Penedès can not be understood without its wines and cavas. Pedal through vineyards, hills, and ride the bike along roads with little traffic. A quiet itinerary will lead us back to Vilafranca through the village of Lleger.</t>
+          <t>Summarized description: Oriol Rossell cavas will expect us at its cellars, where we enter the world of wine in a family farm dedicated to viticulture since the seventeenth century. From there the road will lead us through the Castellet Castle and the Foix reservoir, to the highest point of the day.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: Cycle the Penedès Vineyards</t>
+          <t>Title: Penèdes Cava &amp; Wine Bike Tour (Rent Bicycle &amp; 2 visits to wineries)</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8693P10</t>
+          <t>PRODUCTCODE: 9866P54</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: You can enjoy a day outdoors in an idyllic setting. Surrounded by vineyards and forests. You can also taste the best wines produced by the winery.</t>
+          <t>Summarized description: Discover the world of wine on a walk through the vineyards and cellars. Learn all about the traditional method champenoise used in the elaboration of Cava. This is your opportunity to indulge in the delicious local cuisine, paired with the region's most representative wines.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Electric Bicycle Route And Wine Tasting</t>
+          <t>Title: Wine Cava and Gastronomy Small Group Penedés Tour with Hotel Pick Up</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 270315P1</t>
+          <t>PRODUCTCODE: 50881P4</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Sailing trip, with wine, aperitif and with a skipper included, that will take you to navigate the coast of Sitges. You will be able to see an incredible sunset from the sea.</t>
+          <t>Summarized description: Penedès can not be understood without its wines and cavas. Pedal through vineyards, hills, and ride the bike along roads with little traffic. A quiet itinerary will lead us back to Vilafranca through the village of Lleger.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Sunset along the Sitges Coast by Sailboat</t>
+          <t>Title: Cycle the Penedès Vineyards</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 207305P234</t>
+          <t>PRODUCTCODE: 8693P10</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Sitges is primarily a seaside town, complete with more than a dozen beaches in the region. There are beautiful avenues, a network of quaint and walkable streets, and a handful of museums.</t>
+          <t>Summarized description: You can enjoy a day outdoors in an idyllic setting. Surrounded by vineyards and forests. You can also taste the best wines produced by the winery.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Touristic highlights of Sitges on a Private half day tour with a local</t>
+          <t>Title: Electric Bicycle Route And Wine Tasting</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 139140P67</t>
+          <t>PRODUCTCODE: 8496P5</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Wine tasting and lunch included in a very nice cava winery located in the heart of the Penedes wine region. Private licensed fully-insured air-conditioned comfortable Vehicles are available.</t>
+          <t>Summarized description: This is a tour suitable for everybody, both adults and children. You will mostly ride on bike lanes and pedestrian areas. Just choose the date, number of people, language and other requirements.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Barcelona Countryside Fullday Wine&amp;Cava Tour with Lunch</t>
+          <t xml:space="preserve">Title: PRIVATE - Barcelona Parks and Beaches Bike Tour </t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 172138P6</t>
+          <t>PRODUCTCODE: 211674P4</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Small-group wine and cava tour of the Penedés region. Visit established wineries that display premium Catalan cava. Discover the secrets of traditional and modern manufacturing processes.</t>
+          <t>Summarized description: We offer a high quality service bases on our guides experience. We have the coolest bikes in town, those beautiful wooden bikes and we offer ahigh quality service.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Wine Cellar Penedés Tour</t>
+          <t>Title: Architecture bike tour</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8648P23</t>
+          <t>PRODUCTCODE: 332541P594</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: Sitges Codorníu is one of the most desirable Excursions from Barcelona. Discover the Penedès wine region, the Mediterranean and modernist charm of this famous coastal city.</t>
+          <t>Summarized description: Choose one of our excellent tour options tailored to your needs and interests. Fall in love with Barcelona Old Town highlights, monuments and urban nature on an eco-friendly cycling tour.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Sitges and Codorniu on your own with Optional Winery Guided Visit</t>
+          <t>Title: Bike Tour of Barcelona Old Town, Top Attractions and Nature</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 50881P7</t>
+          <t>PRODUCTCODE: 85992P11</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: The north Penedès is a mosaic of vineyards and wooded streams. Small caves, scattered farmhouses and churches make up the essence of the region. A downhill route will take us back to Vilafranca.</t>
+          <t>Summarized description: The four districts of the old city offer a variety of traditional tapas. You can also visit the local bars, not visited by tourists, in each district.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Active Roadbike tour Penedès (Rent roadbike &amp; breakfast tasting menu)</t>
+          <t>Title: Tapas bike tour</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 155988P2</t>
+          <t>PRODUCTCODE: 22314P6</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Penedés wine region with more fun by riding a Segway through the vineyards. Your guided tour will be a unique experience to share with friends and family. At the end you will savor the wine tasting of three wines including some typical Catalan tapas.</t>
+          <t>Summarized description: Discover Barcelona and its gastronomic culture and way of life in a unique Bike Tour. You will visit the popular Barceloneta and places to enjoy the famous traditional tapas.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: SEGWAY WINE TOUR PENEDÉS: Guided Segway Tour vineyards. Wine Tasting &amp; Lunch</t>
+          <t>Title: Barcelona Bike and Tapas Tour</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P1</t>
+          <t>PRODUCTCODE: 9866P126</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the secrets of making wine and cava with this premium e-bike tour. Stroll around the most beautiful wine routes of Penedès with a wonderful view of Montserrat.</t>
+          <t>Summarized description: Private e-bike ride through the emblematic Mediterranean coast of Barcelona. Visit renowned neighborhoods and pedal through the traditional towns Alella, El Masnou and Badalona en route to the Alta Alella Winery.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: E-bike tour to Penedès private vineyard with organic wine &amp; cava tasting</t>
+          <t>Title: Private wine tasting &amp; E-bike Barcelona's coastline Small Group tour</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Eco-Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 38450P2</t>
+          <t>PRODUCTCODE: 8693P11</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Experience rural Penedès at its best on excellent and comfortable Kalkhoff bikes. Dine in a traditional restaurant populated with locals. Soak up the sweet rhythm of generations of wine farming.</t>
+          <t>Summarized description: With the bike route you can visit the places and vineyards around the winery. You will enjoy exceptional views and end your day outdoors with our barbecue menu.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Classic Penedès Bike Cava Food Wine Full-Day Tour</t>
+          <t>Title: Bike and food route in the winery's restaurant</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Hiking', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 48169P6</t>
+          <t>PRODUCTCODE: 90219P1</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the Penedès at the Estate Can Nadal de la Boadella. Live the scenery and our vineyards enjoying some of the most privileged views of the region. Enjoy a guided tasting of our sparkling wines.</t>
+          <t>Summarized description: Discover the secrets of making wine and cava with this premium e-bike tour. Stroll around the most beautiful wine routes of Penedès with a wonderful view of Montserrat.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Nadal &amp; Mehari Between Vineyards</t>
+          <t>Title: E-bike tour to Penedès private vineyard with organic wine &amp; cava tasting</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Eco-Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 50881P10</t>
+          <t>PRODUCTCODE: 38450P2</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Visit 5 wineries, taste a glass of wine or cava and share a few minutes with the owners or professionals of the winery. Start and finish in Vilafranca del Penedès, just 45 minutes from the center of Barcelona by train or 30 minutes by Bus.</t>
+          <t>Summarized description: Experience rural Penedès at its best on excellent and comfortable Kalkhoff bikes. Dine in a traditional restaurant populated with locals. Soak up the sweet rhythm of generations of wine farming.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: TASTE and GO! 5 BIKE &amp; WINE TOUR - Visit 5 wineries with welcome and tasting cup</t>
+          <t>Title: Classic Penedès Bike Cava Food Wine Full-Day Tour</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 23558P7</t>
+          <t>PRODUCTCODE: 6874P150</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Sitges is renowned worldwide for its Film Festival and Carnival. It is also known for its beaches, nightspots and historical sites. Learn about the wine production at a famous wine cellar in the Penedes.</t>
+          <t>Summarized description: Sail along the Barcelona coast with an assortment of Spanish snacks accompanied by soft or alcoholic drinks. Live an exclusive sailing experience on board a luxury sailboat and sail to one of the oldest wine regions in Spain.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Private Tour: Sitges and Wine Tasting Penedés</t>
+          <t>Title: Private Sailing from Barcelona to the Vineyards with Wine Tasting</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 90219P28</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16804,6 +16804,231 @@
       <c r="H1087" t="inlineStr"/>
       <c r="I1087" t="inlineStr"/>
     </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>Summarized description: Half-day cycling tour of Barcelona's attractions. Includes stops at La Sgarada Familia, Place Sant Jaume and the Arc de Triomf.</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr"/>
+      <c r="C1088" t="inlineStr"/>
+      <c r="D1088" t="inlineStr"/>
+      <c r="E1088" t="inlineStr"/>
+      <c r="F1088" t="inlineStr"/>
+      <c r="G1088" t="inlineStr"/>
+      <c r="H1088" t="inlineStr"/>
+      <c r="I1088" t="inlineStr"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>Title: Discover Barcelona:By Half-Day Exclusive Bike Tour</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr"/>
+      <c r="C1089" t="inlineStr"/>
+      <c r="D1089" t="inlineStr"/>
+      <c r="E1089" t="inlineStr"/>
+      <c r="F1089" t="inlineStr"/>
+      <c r="G1089" t="inlineStr"/>
+      <c r="H1089" t="inlineStr"/>
+      <c r="I1089" t="inlineStr"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr"/>
+      <c r="C1090" t="inlineStr"/>
+      <c r="D1090" t="inlineStr"/>
+      <c r="E1090" t="inlineStr"/>
+      <c r="F1090" t="inlineStr"/>
+      <c r="G1090" t="inlineStr"/>
+      <c r="H1090" t="inlineStr"/>
+      <c r="I1090" t="inlineStr"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Health and Fitness Camps', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr"/>
+      <c r="C1091" t="inlineStr"/>
+      <c r="D1091" t="inlineStr"/>
+      <c r="E1091" t="inlineStr"/>
+      <c r="F1091" t="inlineStr"/>
+      <c r="G1091" t="inlineStr"/>
+      <c r="H1091" t="inlineStr"/>
+      <c r="I1091" t="inlineStr"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 50881P10</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr"/>
+      <c r="C1092" t="inlineStr"/>
+      <c r="D1092" t="inlineStr"/>
+      <c r="E1092" t="inlineStr"/>
+      <c r="F1092" t="inlineStr"/>
+      <c r="G1092" t="inlineStr"/>
+      <c r="H1092" t="inlineStr"/>
+      <c r="I1092" t="inlineStr"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>Summarized description: Visit 5 wineries, taste a glass of wine or cava and share a few minutes with the owners or professionals of the winery. Start and finish in Vilafranca del Penedès, just 45 minutes from the center of Barcelona by train or 30 minutes by Bus.</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr"/>
+      <c r="C1093" t="inlineStr"/>
+      <c r="D1093" t="inlineStr"/>
+      <c r="E1093" t="inlineStr"/>
+      <c r="F1093" t="inlineStr"/>
+      <c r="G1093" t="inlineStr"/>
+      <c r="H1093" t="inlineStr"/>
+      <c r="I1093" t="inlineStr"/>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>Title: TASTE and GO! 5 BIKE &amp; WINE TOUR - Visit 5 wineries with welcome and tasting cup</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr"/>
+      <c r="C1094" t="inlineStr"/>
+      <c r="D1094" t="inlineStr"/>
+      <c r="E1094" t="inlineStr"/>
+      <c r="F1094" t="inlineStr"/>
+      <c r="G1094" t="inlineStr"/>
+      <c r="H1094" t="inlineStr"/>
+      <c r="I1094" t="inlineStr"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr"/>
+      <c r="C1095" t="inlineStr"/>
+      <c r="D1095" t="inlineStr"/>
+      <c r="E1095" t="inlineStr"/>
+      <c r="F1095" t="inlineStr"/>
+      <c r="G1095" t="inlineStr"/>
+      <c r="H1095" t="inlineStr"/>
+      <c r="I1095" t="inlineStr"/>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr"/>
+      <c r="C1096" t="inlineStr"/>
+      <c r="D1096" t="inlineStr"/>
+      <c r="E1096" t="inlineStr"/>
+      <c r="F1096" t="inlineStr"/>
+      <c r="G1096" t="inlineStr"/>
+      <c r="H1096" t="inlineStr"/>
+      <c r="I1096" t="inlineStr"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 23558P7</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr"/>
+      <c r="C1097" t="inlineStr"/>
+      <c r="D1097" t="inlineStr"/>
+      <c r="E1097" t="inlineStr"/>
+      <c r="F1097" t="inlineStr"/>
+      <c r="G1097" t="inlineStr"/>
+      <c r="H1097" t="inlineStr"/>
+      <c r="I1097" t="inlineStr"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>Summarized description: Sitges is renowned worldwide for its Film Festival and Carnival. It is also known for its beaches, nightspots and historical sites. Learn about the wine production at a famous wine cellar in the Penedes.</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr"/>
+      <c r="C1098" t="inlineStr"/>
+      <c r="D1098" t="inlineStr"/>
+      <c r="E1098" t="inlineStr"/>
+      <c r="F1098" t="inlineStr"/>
+      <c r="G1098" t="inlineStr"/>
+      <c r="H1098" t="inlineStr"/>
+      <c r="I1098" t="inlineStr"/>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>Title: Private Tour: Sitges and Wine Tasting Penedés</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr"/>
+      <c r="C1099" t="inlineStr"/>
+      <c r="D1099" t="inlineStr"/>
+      <c r="E1099" t="inlineStr"/>
+      <c r="F1099" t="inlineStr"/>
+      <c r="G1099" t="inlineStr"/>
+      <c r="H1099" t="inlineStr"/>
+      <c r="I1099" t="inlineStr"/>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr"/>
+      <c r="C1100" t="inlineStr"/>
+      <c r="D1100" t="inlineStr"/>
+      <c r="E1100" t="inlineStr"/>
+      <c r="F1100" t="inlineStr"/>
+      <c r="G1100" t="inlineStr"/>
+      <c r="H1100" t="inlineStr"/>
+      <c r="I1100" t="inlineStr"/>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr"/>
+      <c r="C1101" t="inlineStr"/>
+      <c r="D1101" t="inlineStr"/>
+      <c r="E1101" t="inlineStr"/>
+      <c r="F1101" t="inlineStr"/>
+      <c r="G1101" t="inlineStr"/>
+      <c r="H1101" t="inlineStr"/>
+      <c r="I1101" t="inlineStr"/>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr"/>
+      <c r="C1102" t="inlineStr"/>
+      <c r="D1102" t="inlineStr"/>
+      <c r="E1102" t="inlineStr"/>
+      <c r="F1102" t="inlineStr"/>
+      <c r="G1102" t="inlineStr"/>
+      <c r="H1102" t="inlineStr"/>
+      <c r="I1102" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/143594P2.xlsx
+++ b/experiment_results/143594P2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1102"/>
+  <dimension ref="A1:I1127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,7 +590,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Adventure Sports', 'Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -771,7 +771,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1146,7 +1146,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -1821,7 +1821,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2121,7 +2121,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -2196,7 +2196,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3021,7 +3021,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Adventure Sports', 'Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Adventure Sports', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3696,7 +3696,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -3846,7 +3846,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -3996,7 +3996,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Adventure Sports', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -4146,7 +4146,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4446,7 +4446,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -4971,7 +4971,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Culinary Tours', 'Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6771,7 +6771,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7071,7 +7071,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B439" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7596,7 +7596,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B474" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8121,7 +8121,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -8196,7 +8196,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Eco-Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Eco-Tours', 'Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B514" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8346,7 +8346,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B524" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -8496,7 +8496,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -8571,7 +8571,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -8646,7 +8646,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -8946,7 +8946,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Meditation and Yoga Retreats']</t>
+          <t>Category: ['Meditation and Yoga Retreats', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Transportation &amp; Travel Services']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9471,7 +9471,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B599" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -9621,7 +9621,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -9771,7 +9771,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10071,7 +10071,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B639" t="inlineStr"/>
@@ -10146,7 +10146,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B644" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10446,7 +10446,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Eco-Tours']</t>
+          <t>Category: ['Eco-Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B664" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10596,7 +10596,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B674" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -11196,7 +11196,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B714" t="inlineStr"/>
@@ -11271,7 +11271,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B719" t="inlineStr"/>
@@ -11721,7 +11721,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B749" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Eco-Tours', 'Cultural Tours']</t>
+          <t>Category: ['Eco-Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -11871,7 +11871,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Adventure Sports', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B769" t="inlineStr"/>
@@ -12096,7 +12096,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B774" t="inlineStr"/>
@@ -12246,7 +12246,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Category: ['Health and Fitness Camps', 'Meditation and Yoga Retreats']</t>
+          <t>Category: ['Meditation and Yoga Retreats', 'Health and Fitness Camps']</t>
         </is>
       </c>
       <c r="B784" t="inlineStr"/>
@@ -12546,7 +12546,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12771,7 +12771,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12921,7 +12921,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B829" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13071,7 +13071,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13146,7 +13146,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B844" t="inlineStr"/>
@@ -13296,7 +13296,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13371,7 +13371,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Aerial Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Water Sports', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -13446,7 +13446,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13671,7 +13671,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -14227,7 +14227,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B916" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B926" t="inlineStr"/>
@@ -14452,7 +14452,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B931" t="inlineStr"/>
@@ -14467,7 +14467,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 131444P1</t>
+          <t>PRODUCTCODE: 6884HIGHLIGHTS</t>
         </is>
       </c>
       <c r="B932" t="inlineStr"/>
@@ -14482,7 +14482,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>Summarized description: This is a nice cycling stage and also including the best views over the city. We will adapt the distance and difficulty to your needs. From 60 to 85 km including 3-4 climbs.</t>
+          <t>Summarized description: 3-hour bike tour led by an expert guide. See top attractions such as La Sagrada Familia and La Rambla. Learn about the Catalan capital's captivating history.</t>
         </is>
       </c>
       <c r="B933" t="inlineStr"/>
@@ -14497,7 +14497,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Title: The hills around Barcelona by roadbike, private tour. Pick up/drop off included.</t>
+          <t>Title: Barcelona Highlights Bike Tour</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14512,7 +14512,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>TotalReviews: 34</t>
+          <t>TotalReviews: 38</t>
         </is>
       </c>
       <c r="B935" t="inlineStr"/>
@@ -14527,7 +14527,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Health and Fitness Camps']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B936" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P43</t>
+          <t>PRODUCTCODE: 58701P1</t>
         </is>
       </c>
       <c r="B937" t="inlineStr"/>
@@ -14557,7 +14557,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>Summarized description: Live a day in the warmer shores of Catalonia. You will first travel to Tarragona, also known by its ancient name 'Tarraco', and then make your way to beautiful Sitges.</t>
+          <t>Summarized description: A relaxing bike ride along some of Barcelona’s most important monuments and sights. With amazing views, not only of the city, but also the beach and the mountains.</t>
         </is>
       </c>
       <c r="B938" t="inlineStr"/>
@@ -14572,7 +14572,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Title: Private Tarragona and Sitges Tour with Hotel pick-up from Barcelona</t>
+          <t>Title: Barcelona Bike Tour</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14587,7 +14587,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>TotalReviews: 32</t>
+          <t>TotalReviews: 25</t>
         </is>
       </c>
       <c r="B940" t="inlineStr"/>
@@ -14602,7 +14602,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B941" t="inlineStr"/>
@@ -14617,7 +14617,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66330P1</t>
+          <t>PRODUCTCODE: 3993P6</t>
         </is>
       </c>
       <c r="B942" t="inlineStr"/>
@@ -14632,7 +14632,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>Summarized description: Discover all the secrets of making wine and cava with this 7-hour small group tour. Stroll around the most beautiful wine routes of the Penedès wine region. Enjoy 2 premium tastings of organic wines &amp; cavas!</t>
+          <t>Summarized description: Join Fat Tire for a ride through Barcelona as the sun goes down &amp; the lights come up. This tour will bring you across the city to some of it's most beautiful highlights best seen at night.</t>
         </is>
       </c>
       <c r="B943" t="inlineStr"/>
@@ -14647,7 +14647,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Title: From Barcelona: E-Bike Tour in the vineyards with 2 Wineries</t>
+          <t>Title: Barcelona Bike Tour by Night</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14662,7 +14662,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 20</t>
         </is>
       </c>
       <c r="B945" t="inlineStr"/>
@@ -14677,7 +14677,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['', 'City Tours']</t>
         </is>
       </c>
       <c r="B946" t="inlineStr"/>
@@ -14692,7 +14692,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9927P2</t>
+          <t>PRODUCTCODE: 9866P58</t>
         </is>
       </c>
       <c r="B947" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>Summarized description: We are lovers of cycling, nature and wine and so we invite you to come to Penedès to enjoy an unforgettable day cycling among vineyards on our favorite means of transportation. We are visiting an ecologic winery and tasting the best wines and Cavas.</t>
+          <t>Summarized description: Private bike tours in Barcelona are organized for individual travelers and groups. Join us on a fun-filled day as we ride by some of the most emblematic sites of the Catalan capital.</t>
         </is>
       </c>
       <c r="B948" t="inlineStr"/>
@@ -14722,7 +14722,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona: Wine e-Bike Half DayTour in Penedès </t>
+          <t>Title: Barcelona Private Bike Tour</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14737,7 +14737,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 18</t>
         </is>
       </c>
       <c r="B950" t="inlineStr"/>
@@ -14752,7 +14752,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B951" t="inlineStr"/>
@@ -14767,7 +14767,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 16637P10</t>
+          <t>PRODUCTCODE: 72366P1</t>
         </is>
       </c>
       <c r="B952" t="inlineStr"/>
@@ -14782,7 +14782,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Summarized description: Barcelona to Sitges is a great way to experience the Catalan countryside. The two-hour tour includes a wine tasting and a visit to a local bodega.</t>
+          <t>Summarized description: Our guides are here to share our knowledge and information of our beloved city via a bicycle tour of Barcelona. We hope you will join us on our tour of the Spanish capital.</t>
         </is>
       </c>
       <c r="B953" t="inlineStr"/>
@@ -14797,7 +14797,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Cava Wineyard &amp; Sitges Day Trip from Barcelona </t>
+          <t>Title: Guided Bike Tour of Barcelona</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14812,7 +14812,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 18</t>
         </is>
       </c>
       <c r="B955" t="inlineStr"/>
@@ -14827,7 +14827,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B956" t="inlineStr"/>
@@ -14842,7 +14842,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9927P1</t>
+          <t>PRODUCTCODE: 66330P1</t>
         </is>
       </c>
       <c r="B957" t="inlineStr"/>
@@ -14857,7 +14857,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Summarized description: We are lovers of cycling, nature and wine. We are visiting an ecologic winery and tasting the best wines and Cavas. There is nothing better than eating a brunch to taste local products.</t>
+          <t>Summarized description: Discover all the secrets of making wine and cava with this 7-hour small group tour. Stroll around the most beautiful wine routes of the Penedès wine region. Enjoy 2 premium tastings of organic wines &amp; cavas!</t>
         </is>
       </c>
       <c r="B958" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>Title: Barcelona: Wine &amp; eBike Full Day Guided Tour in Penedès</t>
+          <t>Title: From Barcelona: E-Bike Tour in the vineyards with 2 Wineries</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14887,7 +14887,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B960" t="inlineStr"/>
@@ -14902,7 +14902,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87696P2</t>
+          <t>PRODUCTCODE: 9927P2</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -14932,7 +14932,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a wonderful 4hr bike ride through Barcelona. Learn about Catalan customs, culture, history and architecture. Let yourself be swept away by the beautiful sights, such as Sagrada Familia.</t>
+          <t>Summarized description: We are lovers of cycling, nature and wine and so we invite you to come to Penedès to enjoy an unforgettable day cycling among vineyards on our favorite means of transportation. We are visiting an ecologic winery and tasting the best wines and Cavas.</t>
         </is>
       </c>
       <c r="B963" t="inlineStr"/>
@@ -14947,7 +14947,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Title: Barcelona Half-Day Bike Tour</t>
+          <t xml:space="preserve">Title: Barcelona: Wine e-Bike Half DayTour in Penedès </t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14962,7 +14962,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 10</t>
         </is>
       </c>
       <c r="B965" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Adventure Sports', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 89313P1</t>
+          <t>PRODUCTCODE: 16637P10</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona on a bike tour. Ride over bike lanes, pedestrian paths, and parks and gardens to the city's most beautiful sights. Admire the old architecture, enjoy the views from the beach and discover the hidden corners of the city.</t>
+          <t>Summarized description: Barcelona to Sitges is a great way to experience the Catalan countryside. The two-hour tour includes a wine tasting and a visit to a local bodega.</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Title: Barcelona: Highlights Bike Tour</t>
+          <t xml:space="preserve">Title: Cava Wineyard &amp; Sitges Day Trip from Barcelona </t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7728P3</t>
+          <t>PRODUCTCODE: 9927P1</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Summarized description: 4-hour private electric bike tour cycling through World Heritage monuments and attractions of Barcelona. Make the most of your visit to this city and admire all its main highlights in an effortless way.</t>
+          <t>Summarized description: We are lovers of cycling, nature and wine. We are visiting an ecologic winery and tasting the best wines and Cavas. There is nothing better than eating a brunch to taste local products.</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Private e-Bike Tour | Barcelona Highlights </t>
+          <t>Title: Barcelona: Wine &amp; eBike Full Day Guided Tour in Penedès</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15112,7 +15112,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B975" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Adventure Sports', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 191356P1</t>
+          <t>PRODUCTCODE: 87696P2</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Summarized description: Barcelona by bike tours are designed to give you the most unique experience. Each of our individual Barcelona by Bike tours is designed for giving you the best possible experience.</t>
+          <t>Summarized description: Enjoy a wonderful 4hr bike ride through Barcelona. Learn about Catalan customs, culture, history and architecture. Let yourself be swept away by the beautiful sights, such as Sagrada Familia.</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Title: Your individual Barcelona by bike tour</t>
+          <t>Title: Barcelona Half-Day Bike Tour</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6884COASTLINE</t>
+          <t>PRODUCTCODE: 89313P1</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: The 3-hour bike tour takes you off the well-trodden tourist path. Glide through Barcelona's vibrant seafront neighborhoods including El Poblenou and Barceloneta. Pass by the Torre Agbar and sandy beaches on your way to the Olympic Village.</t>
+          <t>Summarized description: Discover Barcelona on a bike tour. Ride over bike lanes, pedestrian paths, and parks and gardens to the city's most beautiful sights. Admire the old architecture, enjoy the views from the beach and discover the hidden corners of the city.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Title: Barcelona Coastline Bike Tour</t>
+          <t>Title: Barcelona: Highlights Bike Tour</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 50881P5</t>
+          <t>PRODUCTCODE: 7728P3</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: The north Penedès, mosaic of vineyards and wooded streams, awaits us in this journey filled with small caves, scattered farmhouses and churches. Discover the essence of a wine region that offers much more than what it seems.</t>
+          <t>Summarized description: 4-hour private electric bike tour cycling through World Heritage monuments and attractions of Barcelona. Make the most of your visit to this city and admire all its main highlights in an effortless way.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Title: Wine Country Bike Tour (Rent roadbike, Visit winery &amp; Lunch)</t>
+          <t xml:space="preserve">Title: Private e-Bike Tour | Barcelona Highlights </t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 172305P76</t>
+          <t>PRODUCTCODE: 191356P1</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Summarized description: Meet Alella with a small group of people, taste the wines from her famous family winery, and stroll through her centuries-old vineyards. Enjoy a unique wine experience and marvel at the beautiful landscape of the Mediterranean Sea.</t>
+          <t>Summarized description: Barcelona by bike tours are designed to give you the most unique experience. Each of our individual Barcelona by Bike tours is designed for giving you the best possible experience.</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Title:  E-Bike Barcelona Coast and Vineyards With Wine Tasting (PRIVATE)</t>
+          <t>Title: Your individual Barcelona by bike tour</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P120</t>
+          <t>PRODUCTCODE: 6884COASTLINE</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: E-bike ride through the emblematic Mediterranean coast of Barcelona. Visit renowned neighborhoods and pedal through the traditional towns Alella, El Masnou and Badalona en route to the Alta Alella Winery.</t>
+          <t>Summarized description: The 3-hour bike tour takes you off the well-trodden tourist path. Glide through Barcelona's vibrant seafront neighborhoods including El Poblenou and Barceloneta. Pass by the Torre Agbar and sandy beaches on your way to the Olympic Village.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: Wine tasting &amp; E-bike Barcelona's coastline Small Group tour</t>
+          <t>Title: Barcelona Coastline Bike Tour</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 50881P9</t>
+          <t>PRODUCTCODE: 50881P5</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: Visit 3 wineries, taste a glass of wine or cava and share a few minutes with the owners or professionals of the winery. Start and finish in Vilafranca del Penedès, just 45 minutes from the center of Barcelona by train or 30 minutes by Bus.</t>
+          <t>Summarized description: The north Penedès, mosaic of vineyards and wooded streams, awaits us in this journey filled with small caves, scattered farmhouses and churches. Discover the essence of a wine region that offers much more than what it seems.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Title: TASTE and GO! 3 BIKE &amp; WINE TOUR - Visit 3 wineries with welcome and tasting cup</t>
+          <t>Title: Wine Country Bike Tour (Rent roadbike, Visit winery &amp; Lunch)</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17377P45</t>
+          <t>PRODUCTCODE: 172305P76</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Sitges was once a fishing village and today is a fashionable seaside community full of history, architecture, restaurants and boutiques. Head to the winery region to enjoy a meal of regional products and finish the day with a wine and chocolate pairing tasting.</t>
+          <t>Summarized description: Meet Alella with a small group of people, taste the wines from her famous family winery, and stroll through her centuries-old vineyards. Enjoy a unique wine experience and marvel at the beautiful landscape of the Mediterranean Sea.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Private Sitges, Wine Tasting &amp; Chocolate Tour + Local Lunch </t>
+          <t>Title:  E-Bike Barcelona Coast and Vineyards With Wine Tasting (PRIVATE)</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['Culinary Tours', 'Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66178P3</t>
+          <t>PRODUCTCODE: 9866P120</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: The winery is located inside a beautiful 14th century masia, near the town of Alella. The grapes are collected by hand in the vineyards. Then, gentle pressing is carried out and the free run juice is settle and fermented.</t>
+          <t>Summarized description: E-bike ride through the emblematic Mediterranean coast of Barcelona. Visit renowned neighborhoods and pedal through the traditional towns Alella, El Masnou and Badalona en route to the Alta Alella Winery.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Private Wine Tasting Tour with Picnic lunch and hotel pick up near Barcelona</t>
+          <t>Title: Wine tasting &amp; E-bike Barcelona's coastline Small Group tour</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 50881P6</t>
+          <t>PRODUCTCODE: 8496P2</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: Oriol Rossell cavas will expect us at its cellars, where we enter the world of wine in a family farm dedicated to viticulture since the seventeenth century. From there the road will lead us through the Castellet Castle and the Foix reservoir, to the highest point of the day.</t>
+          <t>Summarized description: Bike tour takes about 3,5 hours including the tapas time at the end of the bike tour in a typical “tapas bar’. Expert English-speaking guide will take you around the city.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: Penèdes Cava &amp; Wine Bike Tour (Rent Bicycle &amp; 2 visits to wineries)</t>
+          <t>Title: Barcelona Bike Tour Including Tapas Lunch</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P54</t>
+          <t>PRODUCTCODE: 50881P9</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the world of wine on a walk through the vineyards and cellars. Learn all about the traditional method champenoise used in the elaboration of Cava. This is your opportunity to indulge in the delicious local cuisine, paired with the region's most representative wines.</t>
+          <t>Summarized description: Visit 3 wineries, taste a glass of wine or cava and share a few minutes with the owners or professionals of the winery. Start and finish in Vilafranca del Penedès, just 45 minutes from the center of Barcelona by train or 30 minutes by Bus.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Wine Cava and Gastronomy Small Group Penedés Tour with Hotel Pick Up</t>
+          <t>Title: TASTE and GO! 3 BIKE &amp; WINE TOUR - Visit 3 wineries with welcome and tasting cup</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 50881P4</t>
+          <t>PRODUCTCODE: 66178P3</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Penedès can not be understood without its wines and cavas. Pedal through vineyards, hills, and ride the bike along roads with little traffic. A quiet itinerary will lead us back to Vilafranca through the village of Lleger.</t>
+          <t>Summarized description: The winery is located inside a beautiful 14th century masia, near the town of Alella. The grapes are collected by hand in the vineyards. Then, gentle pressing is carried out and the free run juice is settle and fermented.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Cycle the Penedès Vineyards</t>
+          <t>Title: Private Wine Tasting Tour with Picnic lunch and hotel pick up near Barcelona</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8693P10</t>
+          <t>PRODUCTCODE: 50881P6</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: You can enjoy a day outdoors in an idyllic setting. Surrounded by vineyards and forests. You can also taste the best wines produced by the winery.</t>
+          <t>Summarized description: Oriol Rossell cavas will expect us at its cellars, where we enter the world of wine in a family farm dedicated to viticulture since the seventeenth century. From there the road will lead us through the Castellet Castle and the Foix reservoir, to the highest point of the day.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Electric Bicycle Route And Wine Tasting</t>
+          <t>Title: Penèdes Cava &amp; Wine Bike Tour (Rent Bicycle &amp; 2 visits to wineries)</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8496P5</t>
+          <t>PRODUCTCODE: 9866P54</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: This is a tour suitable for everybody, both adults and children. You will mostly ride on bike lanes and pedestrian areas. Just choose the date, number of people, language and other requirements.</t>
+          <t>Summarized description: Discover the world of wine on a walk through the vineyards and cellars. Learn all about the traditional method champenoise used in the elaboration of Cava. This is your opportunity to indulge in the delicious local cuisine, paired with the region's most representative wines.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: PRIVATE - Barcelona Parks and Beaches Bike Tour </t>
+          <t>Title: Wine Cava and Gastronomy Small Group Penedés Tour with Hotel Pick Up</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 211674P4</t>
+          <t>PRODUCTCODE: 50881P4</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: We offer a high quality service bases on our guides experience. We have the coolest bikes in town, those beautiful wooden bikes and we offer ahigh quality service.</t>
+          <t>Summarized description: Penedès can not be understood without its wines and cavas. Pedal through vineyards, hills, and ride the bike along roads with little traffic. A quiet itinerary will lead us back to Vilafranca through the village of Lleger.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Architecture bike tour</t>
+          <t>Title: Cycle the Penedès Vineyards</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Transportation &amp; Travel Services']</t>
+          <t>Category: ['Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 332541P594</t>
+          <t>PRODUCTCODE: 8693P10</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: Choose one of our excellent tour options tailored to your needs and interests. Fall in love with Barcelona Old Town highlights, monuments and urban nature on an eco-friendly cycling tour.</t>
+          <t>Summarized description: You can enjoy a day outdoors in an idyllic setting. Surrounded by vineyards and forests. You can also taste the best wines produced by the winery.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Bike Tour of Barcelona Old Town, Top Attractions and Nature</t>
+          <t>Title: Electric Bicycle Route And Wine Tasting</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 85992P11</t>
+          <t>PRODUCTCODE: 8496P5</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: The four districts of the old city offer a variety of traditional tapas. You can also visit the local bars, not visited by tourists, in each district.</t>
+          <t>Summarized description: This is a tour suitable for everybody, both adults and children. You will mostly ride on bike lanes and pedestrian areas. Just choose the date, number of people, language and other requirements.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Tapas bike tour</t>
+          <t xml:space="preserve">Title: PRIVATE - Barcelona Parks and Beaches Bike Tour </t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 22314P6</t>
+          <t>PRODUCTCODE: 211674P4</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona and its gastronomic culture and way of life in a unique Bike Tour. You will visit the popular Barceloneta and places to enjoy the famous traditional tapas.</t>
+          <t>Summarized description: We offer a high quality service bases on our guides experience. We have the coolest bikes in town, those beautiful wooden bikes and we offer ahigh quality service.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Barcelona Bike and Tapas Tour</t>
+          <t>Title: Architecture bike tour</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P126</t>
+          <t>PRODUCTCODE: 25160P1</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: Private e-bike ride through the emblematic Mediterranean coast of Barcelona. Visit renowned neighborhoods and pedal through the traditional towns Alella, El Masnou and Badalona en route to the Alta Alella Winery.</t>
+          <t>Summarized description: Private 4-hour cycling tour with a professional photographer. See landmarks like La Sagrada Familia, Casa Milà and Casa Batlló. Ride around the beautiful Parc de la Ciutadella.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Private wine tasting &amp; E-bike Barcelona's coastline Small Group tour</t>
+          <t>Title: Private Vintage Bike and Photography Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8693P11</t>
+          <t>PRODUCTCODE: 332541P594</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: With the bike route you can visit the places and vineyards around the winery. You will enjoy exceptional views and end your day outdoors with our barbecue menu.</t>
+          <t>Summarized description: Choose one of our excellent tour options tailored to your needs and interests. Fall in love with Barcelona Old Town highlights, monuments and urban nature on an eco-friendly cycling tour.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Bike and food route in the winery's restaurant</t>
+          <t>Title: Bike Tour of Barcelona Old Town, Top Attractions and Nature</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P1</t>
+          <t>PRODUCTCODE: 85992P11</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the secrets of making wine and cava with this premium e-bike tour. Stroll around the most beautiful wine routes of Penedès with a wonderful view of Montserrat.</t>
+          <t>Summarized description: The four districts of the old city offer a variety of traditional tapas. You can also visit the local bars, not visited by tourists, in each district.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: E-bike tour to Penedès private vineyard with organic wine &amp; cava tasting</t>
+          <t>Title: Tapas bike tour</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Eco-Tours', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 38450P2</t>
+          <t>PRODUCTCODE: 22314P6</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Experience rural Penedès at its best on excellent and comfortable Kalkhoff bikes. Dine in a traditional restaurant populated with locals. Soak up the sweet rhythm of generations of wine farming.</t>
+          <t>Summarized description: Discover Barcelona and its gastronomic culture and way of life in a unique Bike Tour. You will visit the popular Barceloneta and places to enjoy the famous traditional tapas.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Classic Penedès Bike Cava Food Wine Full-Day Tour</t>
+          <t>Title: Barcelona Bike and Tapas Tour</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6874P150</t>
+          <t>PRODUCTCODE: 9866P126</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Sail along the Barcelona coast with an assortment of Spanish snacks accompanied by soft or alcoholic drinks. Live an exclusive sailing experience on board a luxury sailboat and sail to one of the oldest wine regions in Spain.</t>
+          <t>Summarized description: Private e-bike ride through the emblematic Mediterranean coast of Barcelona. Visit renowned neighborhoods and pedal through the traditional towns Alella, El Masnou and Badalona en route to the Alta Alella Winery.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Private Sailing from Barcelona to the Vineyards with Wine Tasting</t>
+          <t>Title: Private wine tasting &amp; E-bike Barcelona's coastline Small Group tour</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Cruises']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P28</t>
+          <t>PRODUCTCODE: 8693P11</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Half-day cycling tour of Barcelona's attractions. Includes stops at La Sgarada Familia, Place Sant Jaume and the Arc de Triomf.</t>
+          <t>Summarized description: With the bike route you can visit the places and vineyards around the winery. You will enjoy exceptional views and end your day outdoors with our barbecue menu.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Discover Barcelona:By Half-Day Exclusive Bike Tour</t>
+          <t>Title: Bike and food route in the winery's restaurant</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Health and Fitness Camps', 'Historical Tours']</t>
+          <t>Category: ['Hiking', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 50881P10</t>
+          <t>PRODUCTCODE: 90219P1</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Visit 5 wineries, taste a glass of wine or cava and share a few minutes with the owners or professionals of the winery. Start and finish in Vilafranca del Penedès, just 45 minutes from the center of Barcelona by train or 30 minutes by Bus.</t>
+          <t>Summarized description: Discover the secrets of making wine and cava with this premium e-bike tour. Stroll around the most beautiful wine routes of Penedès with a wonderful view of Montserrat.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: TASTE and GO! 5 BIKE &amp; WINE TOUR - Visit 5 wineries with welcome and tasting cup</t>
+          <t>Title: E-bike tour to Penedès private vineyard with organic wine &amp; cava tasting</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Eco-Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 23558P7</t>
+          <t>PRODUCTCODE: 38450P2</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Sitges is renowned worldwide for its Film Festival and Carnival. It is also known for its beaches, nightspots and historical sites. Learn about the wine production at a famous wine cellar in the Penedes.</t>
+          <t>Summarized description: Experience rural Penedès at its best on excellent and comfortable Kalkhoff bikes. Dine in a traditional restaurant populated with locals. Soak up the sweet rhythm of generations of wine farming.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Private Tour: Sitges and Wine Tasting Penedés</t>
+          <t>Title: Classic Penedès Bike Cava Food Wine Full-Day Tour</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 6874P150</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17029,6 +17029,381 @@
       <c r="H1102" t="inlineStr"/>
       <c r="I1102" t="inlineStr"/>
     </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>Summarized description: Sail along the Barcelona coast with an assortment of Spanish snacks accompanied by soft or alcoholic drinks. Live an exclusive sailing experience on board a luxury sailboat and sail to one of the oldest wine regions in Spain.</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr"/>
+      <c r="C1103" t="inlineStr"/>
+      <c r="D1103" t="inlineStr"/>
+      <c r="E1103" t="inlineStr"/>
+      <c r="F1103" t="inlineStr"/>
+      <c r="G1103" t="inlineStr"/>
+      <c r="H1103" t="inlineStr"/>
+      <c r="I1103" t="inlineStr"/>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>Title: Private Sailing from Barcelona to the Vineyards with Wine Tasting</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr"/>
+      <c r="C1104" t="inlineStr"/>
+      <c r="D1104" t="inlineStr"/>
+      <c r="E1104" t="inlineStr"/>
+      <c r="F1104" t="inlineStr"/>
+      <c r="G1104" t="inlineStr"/>
+      <c r="H1104" t="inlineStr"/>
+      <c r="I1104" t="inlineStr"/>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr"/>
+      <c r="C1105" t="inlineStr"/>
+      <c r="D1105" t="inlineStr"/>
+      <c r="E1105" t="inlineStr"/>
+      <c r="F1105" t="inlineStr"/>
+      <c r="G1105" t="inlineStr"/>
+      <c r="H1105" t="inlineStr"/>
+      <c r="I1105" t="inlineStr"/>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Cruises', 'Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr"/>
+      <c r="C1106" t="inlineStr"/>
+      <c r="D1106" t="inlineStr"/>
+      <c r="E1106" t="inlineStr"/>
+      <c r="F1106" t="inlineStr"/>
+      <c r="G1106" t="inlineStr"/>
+      <c r="H1106" t="inlineStr"/>
+      <c r="I1106" t="inlineStr"/>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 90219P28</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr"/>
+      <c r="C1107" t="inlineStr"/>
+      <c r="D1107" t="inlineStr"/>
+      <c r="E1107" t="inlineStr"/>
+      <c r="F1107" t="inlineStr"/>
+      <c r="G1107" t="inlineStr"/>
+      <c r="H1107" t="inlineStr"/>
+      <c r="I1107" t="inlineStr"/>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>Summarized description: Half-day cycling tour of Barcelona's attractions. Includes stops at La Sgarada Familia, Place Sant Jaume and the Arc de Triomf.</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr"/>
+      <c r="C1108" t="inlineStr"/>
+      <c r="D1108" t="inlineStr"/>
+      <c r="E1108" t="inlineStr"/>
+      <c r="F1108" t="inlineStr"/>
+      <c r="G1108" t="inlineStr"/>
+      <c r="H1108" t="inlineStr"/>
+      <c r="I1108" t="inlineStr"/>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>Title: Discover Barcelona:By Half-Day Exclusive Bike Tour</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr"/>
+      <c r="C1109" t="inlineStr"/>
+      <c r="D1109" t="inlineStr"/>
+      <c r="E1109" t="inlineStr"/>
+      <c r="F1109" t="inlineStr"/>
+      <c r="G1109" t="inlineStr"/>
+      <c r="H1109" t="inlineStr"/>
+      <c r="I1109" t="inlineStr"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr"/>
+      <c r="C1110" t="inlineStr"/>
+      <c r="D1110" t="inlineStr"/>
+      <c r="E1110" t="inlineStr"/>
+      <c r="F1110" t="inlineStr"/>
+      <c r="G1110" t="inlineStr"/>
+      <c r="H1110" t="inlineStr"/>
+      <c r="I1110" t="inlineStr"/>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Health and Fitness Camps', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr"/>
+      <c r="C1111" t="inlineStr"/>
+      <c r="D1111" t="inlineStr"/>
+      <c r="E1111" t="inlineStr"/>
+      <c r="F1111" t="inlineStr"/>
+      <c r="G1111" t="inlineStr"/>
+      <c r="H1111" t="inlineStr"/>
+      <c r="I1111" t="inlineStr"/>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 50881P10</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr"/>
+      <c r="C1112" t="inlineStr"/>
+      <c r="D1112" t="inlineStr"/>
+      <c r="E1112" t="inlineStr"/>
+      <c r="F1112" t="inlineStr"/>
+      <c r="G1112" t="inlineStr"/>
+      <c r="H1112" t="inlineStr"/>
+      <c r="I1112" t="inlineStr"/>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>Summarized description: Visit 5 wineries, taste a glass of wine or cava and share a few minutes with the owners or professionals of the winery. Start and finish in Vilafranca del Penedès, just 45 minutes from the center of Barcelona by train or 30 minutes by Bus.</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr"/>
+      <c r="C1113" t="inlineStr"/>
+      <c r="D1113" t="inlineStr"/>
+      <c r="E1113" t="inlineStr"/>
+      <c r="F1113" t="inlineStr"/>
+      <c r="G1113" t="inlineStr"/>
+      <c r="H1113" t="inlineStr"/>
+      <c r="I1113" t="inlineStr"/>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>Title: TASTE and GO! 5 BIKE &amp; WINE TOUR - Visit 5 wineries with welcome and tasting cup</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr"/>
+      <c r="C1114" t="inlineStr"/>
+      <c r="D1114" t="inlineStr"/>
+      <c r="E1114" t="inlineStr"/>
+      <c r="F1114" t="inlineStr"/>
+      <c r="G1114" t="inlineStr"/>
+      <c r="H1114" t="inlineStr"/>
+      <c r="I1114" t="inlineStr"/>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr"/>
+      <c r="C1115" t="inlineStr"/>
+      <c r="D1115" t="inlineStr"/>
+      <c r="E1115" t="inlineStr"/>
+      <c r="F1115" t="inlineStr"/>
+      <c r="G1115" t="inlineStr"/>
+      <c r="H1115" t="inlineStr"/>
+      <c r="I1115" t="inlineStr"/>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr"/>
+      <c r="C1116" t="inlineStr"/>
+      <c r="D1116" t="inlineStr"/>
+      <c r="E1116" t="inlineStr"/>
+      <c r="F1116" t="inlineStr"/>
+      <c r="G1116" t="inlineStr"/>
+      <c r="H1116" t="inlineStr"/>
+      <c r="I1116" t="inlineStr"/>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 23558P7</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr"/>
+      <c r="C1117" t="inlineStr"/>
+      <c r="D1117" t="inlineStr"/>
+      <c r="E1117" t="inlineStr"/>
+      <c r="F1117" t="inlineStr"/>
+      <c r="G1117" t="inlineStr"/>
+      <c r="H1117" t="inlineStr"/>
+      <c r="I1117" t="inlineStr"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>Summarized description: Sitges is renowned worldwide for its Film Festival and Carnival. It is also known for its beaches, nightspots and historical sites. Learn about the wine production at a famous wine cellar in the Penedes.</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr"/>
+      <c r="C1118" t="inlineStr"/>
+      <c r="D1118" t="inlineStr"/>
+      <c r="E1118" t="inlineStr"/>
+      <c r="F1118" t="inlineStr"/>
+      <c r="G1118" t="inlineStr"/>
+      <c r="H1118" t="inlineStr"/>
+      <c r="I1118" t="inlineStr"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>Title: Private Tour: Sitges and Wine Tasting Penedés</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr"/>
+      <c r="C1119" t="inlineStr"/>
+      <c r="D1119" t="inlineStr"/>
+      <c r="E1119" t="inlineStr"/>
+      <c r="F1119" t="inlineStr"/>
+      <c r="G1119" t="inlineStr"/>
+      <c r="H1119" t="inlineStr"/>
+      <c r="I1119" t="inlineStr"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr"/>
+      <c r="C1120" t="inlineStr"/>
+      <c r="D1120" t="inlineStr"/>
+      <c r="E1120" t="inlineStr"/>
+      <c r="F1120" t="inlineStr"/>
+      <c r="G1120" t="inlineStr"/>
+      <c r="H1120" t="inlineStr"/>
+      <c r="I1120" t="inlineStr"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr"/>
+      <c r="C1121" t="inlineStr"/>
+      <c r="D1121" t="inlineStr"/>
+      <c r="E1121" t="inlineStr"/>
+      <c r="F1121" t="inlineStr"/>
+      <c r="G1121" t="inlineStr"/>
+      <c r="H1121" t="inlineStr"/>
+      <c r="I1121" t="inlineStr"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 101094P1</t>
+        </is>
+      </c>
+      <c r="B1122" t="inlineStr"/>
+      <c r="C1122" t="inlineStr"/>
+      <c r="D1122" t="inlineStr"/>
+      <c r="E1122" t="inlineStr"/>
+      <c r="F1122" t="inlineStr"/>
+      <c r="G1122" t="inlineStr"/>
+      <c r="H1122" t="inlineStr"/>
+      <c r="I1122" t="inlineStr"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>Summarized description: Sitges is an incredible Catalan Mediterranean village among the beautiful modernist buildings. You'll learn the history of this contemporary city and its ancient roots.</t>
+        </is>
+      </c>
+      <c r="B1123" t="inlineStr"/>
+      <c r="C1123" t="inlineStr"/>
+      <c r="D1123" t="inlineStr"/>
+      <c r="E1123" t="inlineStr"/>
+      <c r="F1123" t="inlineStr"/>
+      <c r="G1123" t="inlineStr"/>
+      <c r="H1123" t="inlineStr"/>
+      <c r="I1123" t="inlineStr"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>Title: Sitges: Food &amp; Natural wine Tasting</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr"/>
+      <c r="C1124" t="inlineStr"/>
+      <c r="D1124" t="inlineStr"/>
+      <c r="E1124" t="inlineStr"/>
+      <c r="F1124" t="inlineStr"/>
+      <c r="G1124" t="inlineStr"/>
+      <c r="H1124" t="inlineStr"/>
+      <c r="I1124" t="inlineStr"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr"/>
+      <c r="C1125" t="inlineStr"/>
+      <c r="D1125" t="inlineStr"/>
+      <c r="E1125" t="inlineStr"/>
+      <c r="F1125" t="inlineStr"/>
+      <c r="G1125" t="inlineStr"/>
+      <c r="H1125" t="inlineStr"/>
+      <c r="I1125" t="inlineStr"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1126" t="inlineStr"/>
+      <c r="C1126" t="inlineStr"/>
+      <c r="D1126" t="inlineStr"/>
+      <c r="E1126" t="inlineStr"/>
+      <c r="F1126" t="inlineStr"/>
+      <c r="G1126" t="inlineStr"/>
+      <c r="H1126" t="inlineStr"/>
+      <c r="I1126" t="inlineStr"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr"/>
+      <c r="C1127" t="inlineStr"/>
+      <c r="D1127" t="inlineStr"/>
+      <c r="E1127" t="inlineStr"/>
+      <c r="F1127" t="inlineStr"/>
+      <c r="G1127" t="inlineStr"/>
+      <c r="H1127" t="inlineStr"/>
+      <c r="I1127" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/143594P2.xlsx
+++ b/experiment_results/143594P2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1127"/>
+  <dimension ref="A1:I1112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,7 +590,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -771,7 +771,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -846,7 +846,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -996,7 +996,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1146,7 +1146,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1821,7 +1821,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -2196,7 +2196,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -2271,7 +2271,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Health and Fitness Camps']</t>
+          <t>Category: ['Health and Fitness Camps', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2871,7 +2871,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3021,7 +3021,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -3846,7 +3846,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4446,7 +4446,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -4596,7 +4596,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -4971,7 +4971,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -6021,7 +6021,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Hiking']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6846,7 +6846,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B424" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -7071,7 +7071,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B439" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8196,7 +8196,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B514" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8346,7 +8346,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B524" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -8496,7 +8496,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -8571,7 +8571,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Cultural Festivals']</t>
+          <t>Category: ['Cultural Festivals', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -9621,7 +9621,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -9771,7 +9771,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10071,7 +10071,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B639" t="inlineStr"/>
@@ -10146,7 +10146,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B644" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10446,7 +10446,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B664" t="inlineStr"/>
@@ -10671,7 +10671,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B679" t="inlineStr"/>
@@ -11046,7 +11046,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Hiking']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11496,7 +11496,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B734" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -11871,7 +11871,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -11946,7 +11946,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B764" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B769" t="inlineStr"/>
@@ -12096,7 +12096,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B774" t="inlineStr"/>
@@ -12171,7 +12171,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B779" t="inlineStr"/>
@@ -12246,7 +12246,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Category: ['Meditation and Yoga Retreats', 'Health and Fitness Camps']</t>
+          <t>Category: ['Health and Fitness Camps', 'Meditation and Yoga Retreats']</t>
         </is>
       </c>
       <c r="B784" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12771,7 +12771,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Health and Fitness Camps', 'Historical Tours']</t>
+          <t>Category: ['Health and Fitness Camps', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -12921,7 +12921,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B829" t="inlineStr"/>
@@ -13071,7 +13071,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13371,7 +13371,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Water Sports', 'Aerial Tours']</t>
+          <t>Category: ['Water Sports', 'City Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -13671,7 +13671,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13746,7 +13746,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -14121,7 +14121,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B926" t="inlineStr"/>
@@ -14467,7 +14467,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6884HIGHLIGHTS</t>
+          <t>PRODUCTCODE: 131444P1</t>
         </is>
       </c>
       <c r="B932" t="inlineStr"/>
@@ -14482,7 +14482,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>Summarized description: 3-hour bike tour led by an expert guide. See top attractions such as La Sagrada Familia and La Rambla. Learn about the Catalan capital's captivating history.</t>
+          <t>Summarized description: This is a nice cycling stage and also including the best views over the city. We will adapt the distance and difficulty to your needs. From 60 to 85 km including 3-4 climbs.</t>
         </is>
       </c>
       <c r="B933" t="inlineStr"/>
@@ -14497,7 +14497,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Title: Barcelona Highlights Bike Tour</t>
+          <t>Title: The hills around Barcelona by roadbike, private tour. Pick up/drop off included.</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14512,7 +14512,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>TotalReviews: 38</t>
+          <t>TotalReviews: 34</t>
         </is>
       </c>
       <c r="B935" t="inlineStr"/>
@@ -14527,7 +14527,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Health and Fitness Camps', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B936" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 58701P1</t>
+          <t>PRODUCTCODE: 9866P43</t>
         </is>
       </c>
       <c r="B937" t="inlineStr"/>
@@ -14557,7 +14557,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>Summarized description: A relaxing bike ride along some of Barcelona’s most important monuments and sights. With amazing views, not only of the city, but also the beach and the mountains.</t>
+          <t>Summarized description: Live a day in the warmer shores of Catalonia. You will first travel to Tarragona, also known by its ancient name 'Tarraco', and then make your way to beautiful Sitges.</t>
         </is>
       </c>
       <c r="B938" t="inlineStr"/>
@@ -14572,7 +14572,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Title: Barcelona Bike Tour</t>
+          <t>Title: Private Tarragona and Sitges Tour with Hotel pick-up from Barcelona</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14587,7 +14587,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>TotalReviews: 25</t>
+          <t>TotalReviews: 32</t>
         </is>
       </c>
       <c r="B940" t="inlineStr"/>
@@ -14602,7 +14602,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B941" t="inlineStr"/>
@@ -14617,7 +14617,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3993P6</t>
+          <t>PRODUCTCODE: 66330P1</t>
         </is>
       </c>
       <c r="B942" t="inlineStr"/>
@@ -14632,7 +14632,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>Summarized description: Join Fat Tire for a ride through Barcelona as the sun goes down &amp; the lights come up. This tour will bring you across the city to some of it's most beautiful highlights best seen at night.</t>
+          <t>Summarized description: Discover all the secrets of making wine and cava with this 7-hour small group tour. Stroll around the most beautiful wine routes of the Penedès wine region. Enjoy 2 premium tastings of organic wines &amp; cavas!</t>
         </is>
       </c>
       <c r="B943" t="inlineStr"/>
@@ -14647,7 +14647,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Title: Barcelona Bike Tour by Night</t>
+          <t>Title: From Barcelona: E-Bike Tour in the vineyards with 2 Wineries</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14662,7 +14662,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B945" t="inlineStr"/>
@@ -14677,7 +14677,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>Category: ['', 'City Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B946" t="inlineStr"/>
@@ -14692,7 +14692,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P58</t>
+          <t>PRODUCTCODE: 9927P2</t>
         </is>
       </c>
       <c r="B947" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>Summarized description: Private bike tours in Barcelona are organized for individual travelers and groups. Join us on a fun-filled day as we ride by some of the most emblematic sites of the Catalan capital.</t>
+          <t>Summarized description: We are lovers of cycling, nature and wine and so we invite you to come to Penedès to enjoy an unforgettable day cycling among vineyards on our favorite means of transportation. We are visiting an ecologic winery and tasting the best wines and Cavas.</t>
         </is>
       </c>
       <c r="B948" t="inlineStr"/>
@@ -14722,7 +14722,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Title: Barcelona Private Bike Tour</t>
+          <t xml:space="preserve">Title: Barcelona: Wine e-Bike Half DayTour in Penedès </t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14737,7 +14737,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>TotalReviews: 18</t>
+          <t>TotalReviews: 10</t>
         </is>
       </c>
       <c r="B950" t="inlineStr"/>
@@ -14752,7 +14752,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B951" t="inlineStr"/>
@@ -14767,7 +14767,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 72366P1</t>
+          <t>PRODUCTCODE: 16637P10</t>
         </is>
       </c>
       <c r="B952" t="inlineStr"/>
@@ -14782,7 +14782,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Summarized description: Our guides are here to share our knowledge and information of our beloved city via a bicycle tour of Barcelona. We hope you will join us on our tour of the Spanish capital.</t>
+          <t>Summarized description: Barcelona to Sitges is a great way to experience the Catalan countryside. The two-hour tour includes a wine tasting and a visit to a local bodega.</t>
         </is>
       </c>
       <c r="B953" t="inlineStr"/>
@@ -14797,7 +14797,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>Title: Guided Bike Tour of Barcelona</t>
+          <t xml:space="preserve">Title: Cava Wineyard &amp; Sitges Day Trip from Barcelona </t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14812,7 +14812,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>TotalReviews: 18</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B955" t="inlineStr"/>
@@ -14827,7 +14827,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B956" t="inlineStr"/>
@@ -14842,7 +14842,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66330P1</t>
+          <t>PRODUCTCODE: 9927P1</t>
         </is>
       </c>
       <c r="B957" t="inlineStr"/>
@@ -14857,7 +14857,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Summarized description: Discover all the secrets of making wine and cava with this 7-hour small group tour. Stroll around the most beautiful wine routes of the Penedès wine region. Enjoy 2 premium tastings of organic wines &amp; cavas!</t>
+          <t>Summarized description: We are lovers of cycling, nature and wine. We are visiting an ecologic winery and tasting the best wines and Cavas. There is nothing better than eating a brunch to taste local products.</t>
         </is>
       </c>
       <c r="B958" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>Title: From Barcelona: E-Bike Tour in the vineyards with 2 Wineries</t>
+          <t>Title: Barcelona: Wine &amp; eBike Full Day Guided Tour in Penedès</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14887,7 +14887,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B960" t="inlineStr"/>
@@ -14902,7 +14902,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9927P2</t>
+          <t>PRODUCTCODE: 87696P2</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -14932,7 +14932,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>Summarized description: We are lovers of cycling, nature and wine and so we invite you to come to Penedès to enjoy an unforgettable day cycling among vineyards on our favorite means of transportation. We are visiting an ecologic winery and tasting the best wines and Cavas.</t>
+          <t>Summarized description: Enjoy a wonderful 4hr bike ride through Barcelona. Learn about Catalan customs, culture, history and architecture. Let yourself be swept away by the beautiful sights, such as Sagrada Familia.</t>
         </is>
       </c>
       <c r="B963" t="inlineStr"/>
@@ -14947,7 +14947,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona: Wine e-Bike Half DayTour in Penedès </t>
+          <t>Title: Barcelona Half-Day Bike Tour</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14962,7 +14962,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B965" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 16637P10</t>
+          <t>PRODUCTCODE: 89313P1</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Summarized description: Barcelona to Sitges is a great way to experience the Catalan countryside. The two-hour tour includes a wine tasting and a visit to a local bodega.</t>
+          <t>Summarized description: Discover Barcelona on a bike tour. Ride over bike lanes, pedestrian paths, and parks and gardens to the city's most beautiful sights. Admire the old architecture, enjoy the views from the beach and discover the hidden corners of the city.</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Cava Wineyard &amp; Sitges Day Trip from Barcelona </t>
+          <t>Title: Barcelona: Highlights Bike Tour</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9927P1</t>
+          <t>PRODUCTCODE: 7728P3</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Summarized description: We are lovers of cycling, nature and wine. We are visiting an ecologic winery and tasting the best wines and Cavas. There is nothing better than eating a brunch to taste local products.</t>
+          <t>Summarized description: 4-hour private electric bike tour cycling through World Heritage monuments and attractions of Barcelona. Make the most of your visit to this city and admire all its main highlights in an effortless way.</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Title: Barcelona: Wine &amp; eBike Full Day Guided Tour in Penedès</t>
+          <t xml:space="preserve">Title: Private e-Bike Tour | Barcelona Highlights </t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15112,7 +15112,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B975" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87696P2</t>
+          <t>PRODUCTCODE: 191356P1</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a wonderful 4hr bike ride through Barcelona. Learn about Catalan customs, culture, history and architecture. Let yourself be swept away by the beautiful sights, such as Sagrada Familia.</t>
+          <t>Summarized description: Barcelona by bike tours are designed to give you the most unique experience. Each of our individual Barcelona by Bike tours is designed for giving you the best possible experience.</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Title: Barcelona Half-Day Bike Tour</t>
+          <t>Title: Your individual Barcelona by bike tour</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 89313P1</t>
+          <t>PRODUCTCODE: 6884COASTLINE</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona on a bike tour. Ride over bike lanes, pedestrian paths, and parks and gardens to the city's most beautiful sights. Admire the old architecture, enjoy the views from the beach and discover the hidden corners of the city.</t>
+          <t>Summarized description: The 3-hour bike tour takes you off the well-trodden tourist path. Glide through Barcelona's vibrant seafront neighborhoods including El Poblenou and Barceloneta. Pass by the Torre Agbar and sandy beaches on your way to the Olympic Village.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Title: Barcelona: Highlights Bike Tour</t>
+          <t>Title: Barcelona Coastline Bike Tour</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7728P3</t>
+          <t>PRODUCTCODE: 50881P5</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: 4-hour private electric bike tour cycling through World Heritage monuments and attractions of Barcelona. Make the most of your visit to this city and admire all its main highlights in an effortless way.</t>
+          <t>Summarized description: The north Penedès, mosaic of vineyards and wooded streams, awaits us in this journey filled with small caves, scattered farmhouses and churches. Discover the essence of a wine region that offers much more than what it seems.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Private e-Bike Tour | Barcelona Highlights </t>
+          <t>Title: Wine Country Bike Tour (Rent roadbike, Visit winery &amp; Lunch)</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 191356P1</t>
+          <t>PRODUCTCODE: 172305P76</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Summarized description: Barcelona by bike tours are designed to give you the most unique experience. Each of our individual Barcelona by Bike tours is designed for giving you the best possible experience.</t>
+          <t>Summarized description: Meet Alella with a small group of people, taste the wines from her famous family winery, and stroll through her centuries-old vineyards. Enjoy a unique wine experience and marvel at the beautiful landscape of the Mediterranean Sea.</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Title: Your individual Barcelona by bike tour</t>
+          <t>Title:  E-Bike Barcelona Coast and Vineyards With Wine Tasting (PRIVATE)</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6884COASTLINE</t>
+          <t>PRODUCTCODE: 9866P120</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: The 3-hour bike tour takes you off the well-trodden tourist path. Glide through Barcelona's vibrant seafront neighborhoods including El Poblenou and Barceloneta. Pass by the Torre Agbar and sandy beaches on your way to the Olympic Village.</t>
+          <t>Summarized description: E-bike ride through the emblematic Mediterranean coast of Barcelona. Visit renowned neighborhoods and pedal through the traditional towns Alella, El Masnou and Badalona en route to the Alta Alella Winery.</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: Barcelona Coastline Bike Tour</t>
+          <t>Title: Wine tasting &amp; E-bike Barcelona's coastline Small Group tour</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 50881P5</t>
+          <t>PRODUCTCODE: 8496P2</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: The north Penedès, mosaic of vineyards and wooded streams, awaits us in this journey filled with small caves, scattered farmhouses and churches. Discover the essence of a wine region that offers much more than what it seems.</t>
+          <t>Summarized description: Bike tour takes about 3,5 hours including the tapas time at the end of the bike tour in a typical “tapas bar’. Expert English-speaking guide will take you around the city.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Title: Wine Country Bike Tour (Rent roadbike, Visit winery &amp; Lunch)</t>
+          <t>Title: Barcelona Bike Tour Including Tapas Lunch</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 172305P76</t>
+          <t>PRODUCTCODE: 50881P9</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Meet Alella with a small group of people, taste the wines from her famous family winery, and stroll through her centuries-old vineyards. Enjoy a unique wine experience and marvel at the beautiful landscape of the Mediterranean Sea.</t>
+          <t>Summarized description: Visit 3 wineries, taste a glass of wine or cava and share a few minutes with the owners or professionals of the winery. Start and finish in Vilafranca del Penedès, just 45 minutes from the center of Barcelona by train or 30 minutes by Bus.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Title:  E-Bike Barcelona Coast and Vineyards With Wine Tasting (PRIVATE)</t>
+          <t>Title: TASTE and GO! 3 BIKE &amp; WINE TOUR - Visit 3 wineries with welcome and tasting cup</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P120</t>
+          <t>PRODUCTCODE: 66178P3</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: E-bike ride through the emblematic Mediterranean coast of Barcelona. Visit renowned neighborhoods and pedal through the traditional towns Alella, El Masnou and Badalona en route to the Alta Alella Winery.</t>
+          <t>Summarized description: The winery is located inside a beautiful 14th century masia, near the town of Alella. The grapes are collected by hand in the vineyards. Then, gentle pressing is carried out and the free run juice is settle and fermented.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Wine tasting &amp; E-bike Barcelona's coastline Small Group tour</t>
+          <t>Title: Private Wine Tasting Tour with Picnic lunch and hotel pick up near Barcelona</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8496P2</t>
+          <t>PRODUCTCODE: 50881P6</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: Bike tour takes about 3,5 hours including the tapas time at the end of the bike tour in a typical “tapas bar’. Expert English-speaking guide will take you around the city.</t>
+          <t>Summarized description: Oriol Rossell cavas will expect us at its cellars, where we enter the world of wine in a family farm dedicated to viticulture since the seventeenth century. From there the road will lead us through the Castellet Castle and the Foix reservoir, to the highest point of the day.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: Barcelona Bike Tour Including Tapas Lunch</t>
+          <t>Title: Penèdes Cava &amp; Wine Bike Tour (Rent Bicycle &amp; 2 visits to wineries)</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 50881P9</t>
+          <t>PRODUCTCODE: 9866P54</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Visit 3 wineries, taste a glass of wine or cava and share a few minutes with the owners or professionals of the winery. Start and finish in Vilafranca del Penedès, just 45 minutes from the center of Barcelona by train or 30 minutes by Bus.</t>
+          <t>Summarized description: Discover the world of wine on a walk through the vineyards and cellars. Learn all about the traditional method champenoise used in the elaboration of Cava. This is your opportunity to indulge in the delicious local cuisine, paired with the region's most representative wines.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: TASTE and GO! 3 BIKE &amp; WINE TOUR - Visit 3 wineries with welcome and tasting cup</t>
+          <t>Title: Wine Cava and Gastronomy Small Group Penedés Tour with Hotel Pick Up</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 66178P3</t>
+          <t>PRODUCTCODE: 50881P4</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: The winery is located inside a beautiful 14th century masia, near the town of Alella. The grapes are collected by hand in the vineyards. Then, gentle pressing is carried out and the free run juice is settle and fermented.</t>
+          <t>Summarized description: Penedès can not be understood without its wines and cavas. Pedal through vineyards, hills, and ride the bike along roads with little traffic. A quiet itinerary will lead us back to Vilafranca through the village of Lleger.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Private Wine Tasting Tour with Picnic lunch and hotel pick up near Barcelona</t>
+          <t>Title: Cycle the Penedès Vineyards</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 50881P6</t>
+          <t>PRODUCTCODE: 8693P10</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Oriol Rossell cavas will expect us at its cellars, where we enter the world of wine in a family farm dedicated to viticulture since the seventeenth century. From there the road will lead us through the Castellet Castle and the Foix reservoir, to the highest point of the day.</t>
+          <t>Summarized description: You can enjoy a day outdoors in an idyllic setting. Surrounded by vineyards and forests. You can also taste the best wines produced by the winery.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Penèdes Cava &amp; Wine Bike Tour (Rent Bicycle &amp; 2 visits to wineries)</t>
+          <t>Title: Electric Bicycle Route And Wine Tasting</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P54</t>
+          <t>PRODUCTCODE: 8496P5</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the world of wine on a walk through the vineyards and cellars. Learn all about the traditional method champenoise used in the elaboration of Cava. This is your opportunity to indulge in the delicious local cuisine, paired with the region's most representative wines.</t>
+          <t>Summarized description: This is a tour suitable for everybody, both adults and children. You will mostly ride on bike lanes and pedestrian areas. Just choose the date, number of people, language and other requirements.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Wine Cava and Gastronomy Small Group Penedés Tour with Hotel Pick Up</t>
+          <t xml:space="preserve">Title: PRIVATE - Barcelona Parks and Beaches Bike Tour </t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 50881P4</t>
+          <t>PRODUCTCODE: 211674P4</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Penedès can not be understood without its wines and cavas. Pedal through vineyards, hills, and ride the bike along roads with little traffic. A quiet itinerary will lead us back to Vilafranca through the village of Lleger.</t>
+          <t>Summarized description: We offer a high quality service bases on our guides experience. We have the coolest bikes in town, those beautiful wooden bikes and we offer ahigh quality service.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Cycle the Penedès Vineyards</t>
+          <t>Title: Architecture bike tour</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8693P10</t>
+          <t>PRODUCTCODE: 25160P1</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: You can enjoy a day outdoors in an idyllic setting. Surrounded by vineyards and forests. You can also taste the best wines produced by the winery.</t>
+          <t>Summarized description: Private 4-hour cycling tour with a professional photographer. See landmarks like La Sagrada Familia, Casa Milà and Casa Batlló. Ride around the beautiful Parc de la Ciutadella.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Electric Bicycle Route And Wine Tasting</t>
+          <t>Title: Private Vintage Bike and Photography Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8496P5</t>
+          <t>PRODUCTCODE: 332541P594</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: This is a tour suitable for everybody, both adults and children. You will mostly ride on bike lanes and pedestrian areas. Just choose the date, number of people, language and other requirements.</t>
+          <t>Summarized description: Choose one of our excellent tour options tailored to your needs and interests. Fall in love with Barcelona Old Town highlights, monuments and urban nature on an eco-friendly cycling tour.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: PRIVATE - Barcelona Parks and Beaches Bike Tour </t>
+          <t>Title: Bike Tour of Barcelona Old Town, Top Attractions and Nature</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 211674P4</t>
+          <t>PRODUCTCODE: 85992P11</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: We offer a high quality service bases on our guides experience. We have the coolest bikes in town, those beautiful wooden bikes and we offer ahigh quality service.</t>
+          <t>Summarized description: The four districts of the old city offer a variety of traditional tapas. You can also visit the local bars, not visited by tourists, in each district.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Architecture bike tour</t>
+          <t>Title: Tapas bike tour</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'Scenic Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 25160P1</t>
+          <t>PRODUCTCODE: 8480P19</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: Private 4-hour cycling tour with a professional photographer. See landmarks like La Sagrada Familia, Casa Milà and Casa Batlló. Ride around the beautiful Parc de la Ciutadella.</t>
+          <t>Summarized description: Explore Barcelona on a bike with a vintage Polaroid camera. Get creative and take home unique Polaroid souvenirs from your trip. Get off the beaten track on this 3 hour tour.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Private Vintage Bike and Photography Tour in Barcelona</t>
+          <t>Title: Barcelona Bike &amp; Vintage Polaroid Photo Tour</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 332541P594</t>
+          <t>PRODUCTCODE: 22314P6</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Choose one of our excellent tour options tailored to your needs and interests. Fall in love with Barcelona Old Town highlights, monuments and urban nature on an eco-friendly cycling tour.</t>
+          <t>Summarized description: Discover Barcelona and its gastronomic culture and way of life in a unique Bike Tour. You will visit the popular Barceloneta and places to enjoy the famous traditional tapas.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Bike Tour of Barcelona Old Town, Top Attractions and Nature</t>
+          <t>Title: Barcelona Bike and Tapas Tour</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 85992P11</t>
+          <t>PRODUCTCODE: 9866P126</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: The four districts of the old city offer a variety of traditional tapas. You can also visit the local bars, not visited by tourists, in each district.</t>
+          <t>Summarized description: Private e-bike ride through the emblematic Mediterranean coast of Barcelona. Visit renowned neighborhoods and pedal through the traditional towns Alella, El Masnou and Badalona en route to the Alta Alella Winery.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Tapas bike tour</t>
+          <t>Title: Private wine tasting &amp; E-bike Barcelona's coastline Small Group tour</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 22314P6</t>
+          <t>PRODUCTCODE: 8693P11</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Barcelona and its gastronomic culture and way of life in a unique Bike Tour. You will visit the popular Barceloneta and places to enjoy the famous traditional tapas.</t>
+          <t>Summarized description: With the bike route you can visit the places and vineyards around the winery. You will enjoy exceptional views and end your day outdoors with our barbecue menu.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Barcelona Bike and Tapas Tour</t>
+          <t>Title: Bike and food route in the winery's restaurant</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Hiking']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P126</t>
+          <t>PRODUCTCODE: 90219P1</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Private e-bike ride through the emblematic Mediterranean coast of Barcelona. Visit renowned neighborhoods and pedal through the traditional towns Alella, El Masnou and Badalona en route to the Alta Alella Winery.</t>
+          <t>Summarized description: Discover the secrets of making wine and cava with this premium e-bike tour. Stroll around the most beautiful wine routes of Penedès with a wonderful view of Montserrat.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Private wine tasting &amp; E-bike Barcelona's coastline Small Group tour</t>
+          <t>Title: E-bike tour to Penedès private vineyard with organic wine &amp; cava tasting</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8693P11</t>
+          <t>PRODUCTCODE: 38450P2</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: With the bike route you can visit the places and vineyards around the winery. You will enjoy exceptional views and end your day outdoors with our barbecue menu.</t>
+          <t>Summarized description: Experience rural Penedès at its best on excellent and comfortable Kalkhoff bikes. Dine in a traditional restaurant populated with locals. Soak up the sweet rhythm of generations of wine farming.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Bike and food route in the winery's restaurant</t>
+          <t>Title: Classic Penedès Bike Cava Food Wine Full-Day Tour</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P1</t>
+          <t>PRODUCTCODE: 6874P150</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the secrets of making wine and cava with this premium e-bike tour. Stroll around the most beautiful wine routes of Penedès with a wonderful view of Montserrat.</t>
+          <t>Summarized description: Sail along the Barcelona coast with an assortment of Spanish snacks accompanied by soft or alcoholic drinks. Live an exclusive sailing experience on board a luxury sailboat and sail to one of the oldest wine regions in Spain.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: E-bike tour to Penedès private vineyard with organic wine &amp; cava tasting</t>
+          <t>Title: Private Sailing from Barcelona to the Vineyards with Wine Tasting</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Cultural Cruises', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 38450P2</t>
+          <t>PRODUCTCODE: 90219P28</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Experience rural Penedès at its best on excellent and comfortable Kalkhoff bikes. Dine in a traditional restaurant populated with locals. Soak up the sweet rhythm of generations of wine farming.</t>
+          <t>Summarized description: Half-day cycling tour of Barcelona's attractions. Includes stops at La Sgarada Familia, Place Sant Jaume and the Arc de Triomf.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Classic Penedès Bike Cava Food Wine Full-Day Tour</t>
+          <t>Title: Discover Barcelona:By Half-Day Exclusive Bike Tour</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Health and Fitness Camps', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6874P150</t>
+          <t>PRODUCTCODE: 50881P10</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: Sail along the Barcelona coast with an assortment of Spanish snacks accompanied by soft or alcoholic drinks. Live an exclusive sailing experience on board a luxury sailboat and sail to one of the oldest wine regions in Spain.</t>
+          <t>Summarized description: Visit 5 wineries, taste a glass of wine or cava and share a few minutes with the owners or professionals of the winery. Start and finish in Vilafranca del Penedès, just 45 minutes from the center of Barcelona by train or 30 minutes by Bus.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Private Sailing from Barcelona to the Vineyards with Wine Tasting</t>
+          <t>Title: TASTE and GO! 5 BIKE &amp; WINE TOUR - Visit 5 wineries with welcome and tasting cup</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P28</t>
+          <t>PRODUCTCODE: 23558P7</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Half-day cycling tour of Barcelona's attractions. Includes stops at La Sgarada Familia, Place Sant Jaume and the Arc de Triomf.</t>
+          <t>Summarized description: Sitges is renowned worldwide for its Film Festival and Carnival. It is also known for its beaches, nightspots and historical sites. Learn about the wine production at a famous wine cellar in the Penedes.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Discover Barcelona:By Half-Day Exclusive Bike Tour</t>
+          <t>Title: Private Tour: Sitges and Wine Tasting Penedés</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Health and Fitness Camps', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 50881P10</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17179,231 +17179,6 @@
       <c r="H1112" t="inlineStr"/>
       <c r="I1112" t="inlineStr"/>
     </row>
-    <row r="1113">
-      <c r="A1113" t="inlineStr">
-        <is>
-          <t>Summarized description: Visit 5 wineries, taste a glass of wine or cava and share a few minutes with the owners or professionals of the winery. Start and finish in Vilafranca del Penedès, just 45 minutes from the center of Barcelona by train or 30 minutes by Bus.</t>
-        </is>
-      </c>
-      <c r="B1113" t="inlineStr"/>
-      <c r="C1113" t="inlineStr"/>
-      <c r="D1113" t="inlineStr"/>
-      <c r="E1113" t="inlineStr"/>
-      <c r="F1113" t="inlineStr"/>
-      <c r="G1113" t="inlineStr"/>
-      <c r="H1113" t="inlineStr"/>
-      <c r="I1113" t="inlineStr"/>
-    </row>
-    <row r="1114">
-      <c r="A1114" t="inlineStr">
-        <is>
-          <t>Title: TASTE and GO! 5 BIKE &amp; WINE TOUR - Visit 5 wineries with welcome and tasting cup</t>
-        </is>
-      </c>
-      <c r="B1114" t="inlineStr"/>
-      <c r="C1114" t="inlineStr"/>
-      <c r="D1114" t="inlineStr"/>
-      <c r="E1114" t="inlineStr"/>
-      <c r="F1114" t="inlineStr"/>
-      <c r="G1114" t="inlineStr"/>
-      <c r="H1114" t="inlineStr"/>
-      <c r="I1114" t="inlineStr"/>
-    </row>
-    <row r="1115">
-      <c r="A1115" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1115" t="inlineStr"/>
-      <c r="C1115" t="inlineStr"/>
-      <c r="D1115" t="inlineStr"/>
-      <c r="E1115" t="inlineStr"/>
-      <c r="F1115" t="inlineStr"/>
-      <c r="G1115" t="inlineStr"/>
-      <c r="H1115" t="inlineStr"/>
-      <c r="I1115" t="inlineStr"/>
-    </row>
-    <row r="1116">
-      <c r="A1116" t="inlineStr">
-        <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
-        </is>
-      </c>
-      <c r="B1116" t="inlineStr"/>
-      <c r="C1116" t="inlineStr"/>
-      <c r="D1116" t="inlineStr"/>
-      <c r="E1116" t="inlineStr"/>
-      <c r="F1116" t="inlineStr"/>
-      <c r="G1116" t="inlineStr"/>
-      <c r="H1116" t="inlineStr"/>
-      <c r="I1116" t="inlineStr"/>
-    </row>
-    <row r="1117">
-      <c r="A1117" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 23558P7</t>
-        </is>
-      </c>
-      <c r="B1117" t="inlineStr"/>
-      <c r="C1117" t="inlineStr"/>
-      <c r="D1117" t="inlineStr"/>
-      <c r="E1117" t="inlineStr"/>
-      <c r="F1117" t="inlineStr"/>
-      <c r="G1117" t="inlineStr"/>
-      <c r="H1117" t="inlineStr"/>
-      <c r="I1117" t="inlineStr"/>
-    </row>
-    <row r="1118">
-      <c r="A1118" t="inlineStr">
-        <is>
-          <t>Summarized description: Sitges is renowned worldwide for its Film Festival and Carnival. It is also known for its beaches, nightspots and historical sites. Learn about the wine production at a famous wine cellar in the Penedes.</t>
-        </is>
-      </c>
-      <c r="B1118" t="inlineStr"/>
-      <c r="C1118" t="inlineStr"/>
-      <c r="D1118" t="inlineStr"/>
-      <c r="E1118" t="inlineStr"/>
-      <c r="F1118" t="inlineStr"/>
-      <c r="G1118" t="inlineStr"/>
-      <c r="H1118" t="inlineStr"/>
-      <c r="I1118" t="inlineStr"/>
-    </row>
-    <row r="1119">
-      <c r="A1119" t="inlineStr">
-        <is>
-          <t>Title: Private Tour: Sitges and Wine Tasting Penedés</t>
-        </is>
-      </c>
-      <c r="B1119" t="inlineStr"/>
-      <c r="C1119" t="inlineStr"/>
-      <c r="D1119" t="inlineStr"/>
-      <c r="E1119" t="inlineStr"/>
-      <c r="F1119" t="inlineStr"/>
-      <c r="G1119" t="inlineStr"/>
-      <c r="H1119" t="inlineStr"/>
-      <c r="I1119" t="inlineStr"/>
-    </row>
-    <row r="1120">
-      <c r="A1120" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1120" t="inlineStr"/>
-      <c r="C1120" t="inlineStr"/>
-      <c r="D1120" t="inlineStr"/>
-      <c r="E1120" t="inlineStr"/>
-      <c r="F1120" t="inlineStr"/>
-      <c r="G1120" t="inlineStr"/>
-      <c r="H1120" t="inlineStr"/>
-      <c r="I1120" t="inlineStr"/>
-    </row>
-    <row r="1121">
-      <c r="A1121" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
-        </is>
-      </c>
-      <c r="B1121" t="inlineStr"/>
-      <c r="C1121" t="inlineStr"/>
-      <c r="D1121" t="inlineStr"/>
-      <c r="E1121" t="inlineStr"/>
-      <c r="F1121" t="inlineStr"/>
-      <c r="G1121" t="inlineStr"/>
-      <c r="H1121" t="inlineStr"/>
-      <c r="I1121" t="inlineStr"/>
-    </row>
-    <row r="1122">
-      <c r="A1122" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 101094P1</t>
-        </is>
-      </c>
-      <c r="B1122" t="inlineStr"/>
-      <c r="C1122" t="inlineStr"/>
-      <c r="D1122" t="inlineStr"/>
-      <c r="E1122" t="inlineStr"/>
-      <c r="F1122" t="inlineStr"/>
-      <c r="G1122" t="inlineStr"/>
-      <c r="H1122" t="inlineStr"/>
-      <c r="I1122" t="inlineStr"/>
-    </row>
-    <row r="1123">
-      <c r="A1123" t="inlineStr">
-        <is>
-          <t>Summarized description: Sitges is an incredible Catalan Mediterranean village among the beautiful modernist buildings. You'll learn the history of this contemporary city and its ancient roots.</t>
-        </is>
-      </c>
-      <c r="B1123" t="inlineStr"/>
-      <c r="C1123" t="inlineStr"/>
-      <c r="D1123" t="inlineStr"/>
-      <c r="E1123" t="inlineStr"/>
-      <c r="F1123" t="inlineStr"/>
-      <c r="G1123" t="inlineStr"/>
-      <c r="H1123" t="inlineStr"/>
-      <c r="I1123" t="inlineStr"/>
-    </row>
-    <row r="1124">
-      <c r="A1124" t="inlineStr">
-        <is>
-          <t>Title: Sitges: Food &amp; Natural wine Tasting</t>
-        </is>
-      </c>
-      <c r="B1124" t="inlineStr"/>
-      <c r="C1124" t="inlineStr"/>
-      <c r="D1124" t="inlineStr"/>
-      <c r="E1124" t="inlineStr"/>
-      <c r="F1124" t="inlineStr"/>
-      <c r="G1124" t="inlineStr"/>
-      <c r="H1124" t="inlineStr"/>
-      <c r="I1124" t="inlineStr"/>
-    </row>
-    <row r="1125">
-      <c r="A1125" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1125" t="inlineStr"/>
-      <c r="C1125" t="inlineStr"/>
-      <c r="D1125" t="inlineStr"/>
-      <c r="E1125" t="inlineStr"/>
-      <c r="F1125" t="inlineStr"/>
-      <c r="G1125" t="inlineStr"/>
-      <c r="H1125" t="inlineStr"/>
-      <c r="I1125" t="inlineStr"/>
-    </row>
-    <row r="1126">
-      <c r="A1126" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1126" t="inlineStr"/>
-      <c r="C1126" t="inlineStr"/>
-      <c r="D1126" t="inlineStr"/>
-      <c r="E1126" t="inlineStr"/>
-      <c r="F1126" t="inlineStr"/>
-      <c r="G1126" t="inlineStr"/>
-      <c r="H1126" t="inlineStr"/>
-      <c r="I1126" t="inlineStr"/>
-    </row>
-    <row r="1127">
-      <c r="A1127" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1127" t="inlineStr"/>
-      <c r="C1127" t="inlineStr"/>
-      <c r="D1127" t="inlineStr"/>
-      <c r="E1127" t="inlineStr"/>
-      <c r="F1127" t="inlineStr"/>
-      <c r="G1127" t="inlineStr"/>
-      <c r="H1127" t="inlineStr"/>
-      <c r="I1127" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/143594P2.xlsx
+++ b/experiment_results/143594P2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1069"/>
+  <dimension ref="A1:I1154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,7 +801,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -1026,7 +1026,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1101,7 +1101,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1326,7 +1326,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -1476,7 +1476,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Scenic Tours']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -1851,7 +1851,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -2076,7 +2076,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
@@ -2151,7 +2151,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
@@ -2226,7 +2226,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Health and Fitness Camps']</t>
+          <t>Category: ['Health and Fitness Camps', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
@@ -2451,7 +2451,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
@@ -2526,7 +2526,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Category: ['', 'City Tours']</t>
+          <t>Category: ['City Tours', '']</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
@@ -2601,7 +2601,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
@@ -2676,7 +2676,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
@@ -2751,7 +2751,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
@@ -2901,7 +2901,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
@@ -3201,7 +3201,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B181" t="inlineStr"/>
@@ -3426,7 +3426,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
@@ -3501,7 +3501,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Adventure Sports', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
@@ -3576,7 +3576,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
@@ -3651,7 +3651,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
@@ -4026,7 +4026,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Adventure Sports', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B236" t="inlineStr"/>
@@ -4101,7 +4101,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B241" t="inlineStr"/>
@@ -4176,7 +4176,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B246" t="inlineStr"/>
@@ -4401,7 +4401,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B261" t="inlineStr"/>
@@ -4476,7 +4476,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B266" t="inlineStr"/>
@@ -4551,7 +4551,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B271" t="inlineStr"/>
@@ -4776,7 +4776,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B286" t="inlineStr"/>
@@ -5001,7 +5001,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B301" t="inlineStr"/>
@@ -5226,7 +5226,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B316" t="inlineStr"/>
@@ -5376,7 +5376,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B326" t="inlineStr"/>
@@ -5901,7 +5901,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B361" t="inlineStr"/>
@@ -5976,7 +5976,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B366" t="inlineStr"/>
@@ -6201,7 +6201,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B381" t="inlineStr"/>
@@ -6276,7 +6276,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B386" t="inlineStr"/>
@@ -6501,7 +6501,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B401" t="inlineStr"/>
@@ -6576,7 +6576,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B406" t="inlineStr"/>
@@ -6801,7 +6801,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B421" t="inlineStr"/>
@@ -6876,7 +6876,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B426" t="inlineStr"/>
@@ -6951,7 +6951,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B431" t="inlineStr"/>
@@ -7026,7 +7026,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B436" t="inlineStr"/>
@@ -7176,7 +7176,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B446" t="inlineStr"/>
@@ -7551,7 +7551,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B471" t="inlineStr"/>
@@ -7926,7 +7926,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B496" t="inlineStr"/>
@@ -8001,7 +8001,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B501" t="inlineStr"/>
@@ -8076,7 +8076,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B506" t="inlineStr"/>
@@ -8151,7 +8151,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B511" t="inlineStr"/>
@@ -8226,7 +8226,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B516" t="inlineStr"/>
@@ -8301,7 +8301,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B521" t="inlineStr"/>
@@ -8376,7 +8376,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B526" t="inlineStr"/>
@@ -8451,7 +8451,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B531" t="inlineStr"/>
@@ -8526,7 +8526,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B536" t="inlineStr"/>
@@ -8676,7 +8676,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B546" t="inlineStr"/>
@@ -9276,7 +9276,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Cultural Cruises', 'Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B586" t="inlineStr"/>
@@ -9351,7 +9351,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B591" t="inlineStr"/>
@@ -9501,7 +9501,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B601" t="inlineStr"/>
@@ -9726,7 +9726,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B616" t="inlineStr"/>
@@ -9801,7 +9801,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B621" t="inlineStr"/>
@@ -9951,7 +9951,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B631" t="inlineStr"/>
@@ -10026,7 +10026,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B636" t="inlineStr"/>
@@ -10101,7 +10101,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B641" t="inlineStr"/>
@@ -10176,7 +10176,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B646" t="inlineStr"/>
@@ -10326,7 +10326,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B656" t="inlineStr"/>
@@ -10401,7 +10401,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B661" t="inlineStr"/>
@@ -10551,7 +10551,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B671" t="inlineStr"/>
@@ -10776,7 +10776,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B686" t="inlineStr"/>
@@ -11076,7 +11076,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B706" t="inlineStr"/>
@@ -11151,7 +11151,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B711" t="inlineStr"/>
@@ -11226,7 +11226,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B716" t="inlineStr"/>
@@ -11601,7 +11601,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B741" t="inlineStr"/>
@@ -11676,7 +11676,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B746" t="inlineStr"/>
@@ -11751,7 +11751,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Eco-Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B751" t="inlineStr"/>
@@ -11826,7 +11826,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Adventure Sports', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B756" t="inlineStr"/>
@@ -11901,7 +11901,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B761" t="inlineStr"/>
@@ -12051,7 +12051,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B771" t="inlineStr"/>
@@ -12501,7 +12501,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B801" t="inlineStr"/>
@@ -12726,7 +12726,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B816" t="inlineStr"/>
@@ -12876,7 +12876,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B826" t="inlineStr"/>
@@ -12951,7 +12951,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B831" t="inlineStr"/>
@@ -13026,7 +13026,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B836" t="inlineStr"/>
@@ -13101,7 +13101,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B841" t="inlineStr"/>
@@ -13251,7 +13251,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B851" t="inlineStr"/>
@@ -13326,7 +13326,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'Water Sports', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Water Sports', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B856" t="inlineStr"/>
@@ -13401,7 +13401,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B861" t="inlineStr"/>
@@ -13626,7 +13626,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Dining Experiences', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B876" t="inlineStr"/>
@@ -13701,7 +13701,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B881" t="inlineStr"/>
@@ -13776,7 +13776,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B886" t="inlineStr"/>
@@ -14122,7 +14122,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3993FTBB</t>
+          <t>PRODUCTCODE: 7228P1</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14137,7 +14137,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>Summarized description: There's no better way to see the sights and learn the history of Barcelona than by joining a Fat Tire bike tour. You get to have fun and socialize, have some exercise and be entertained by your knowledgeable English-speaking guide. There's no doubt it will be the best day you'll spend in Barcelona!</t>
+          <t>Summarized description: This Bike Tour is perfect for lovers of art and architecture. A route through the history of the ancient and medieval Barcelona. Discover all the corners of this neighbourhood as well as the old Barcelona’s secrets and legends.</t>
         </is>
       </c>
       <c r="B910" t="inlineStr"/>
@@ -14152,7 +14152,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>Title: Barcelona Half Day Bike Small Group Tour</t>
+          <t>Title: Historical and Modernist Bike Tour Barcelona</t>
         </is>
       </c>
       <c r="B911" t="inlineStr"/>
@@ -14167,7 +14167,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>TotalReviews: 2844</t>
+          <t>TotalReviews: 254</t>
         </is>
       </c>
       <c r="B912" t="inlineStr"/>
@@ -14182,7 +14182,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B913" t="inlineStr"/>
@@ -14197,7 +14197,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 118940P1</t>
+          <t>PRODUCTCODE: 43217P1</t>
         </is>
       </c>
       <c r="B914" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>Summarized description: The Barcelona Bike tour is the best way to see this fabulous city. The tour takes approximately 3 hours, the bikes are comfortable and easy to ride. Groups are small so it’s friendly and intimate.</t>
+          <t>Summarized description: 3-hour bike tour in the heart of the city. Follow your local guide and discover the most incredible monuments of Gaudi. This tour is one of the most affordable and fun ways to see all of Barcelona.</t>
         </is>
       </c>
       <c r="B915" t="inlineStr"/>
@@ -14227,7 +14227,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>Title: Barcelona City Bike Tour: Highlights and Hidden Gems</t>
+          <t>Title: Barcelona City Bike Tour</t>
         </is>
       </c>
       <c r="B916" t="inlineStr"/>
@@ -14242,7 +14242,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>TotalReviews: 1052</t>
+          <t>TotalReviews: 228</t>
         </is>
       </c>
       <c r="B917" t="inlineStr"/>
@@ -14257,7 +14257,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B918" t="inlineStr"/>
@@ -14272,7 +14272,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 43217P1</t>
+          <t>PRODUCTCODE: 421531P4</t>
         </is>
       </c>
       <c r="B919" t="inlineStr"/>
@@ -14287,7 +14287,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>Summarized description: 3-hour bike tour in the heart of the city. Follow your local guide and discover the most incredible monuments of Gaudi. This tour is one of the most affordable and fun ways to see all of Barcelona.</t>
+          <t>Summarized description: You will experience a bike tour with guide in your own language. Enjoy picturesque views of Barcelona. Take part in an exciting feeding event for Barcelona's famous parrots.</t>
         </is>
       </c>
       <c r="B920" t="inlineStr"/>
@@ -14302,7 +14302,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>Title: Barcelona City Bike Tour</t>
+          <t>Title: 25-ТOP-Barcelona 25 Best Sights with Local Guide on Bike/E-Bike</t>
         </is>
       </c>
       <c r="B921" t="inlineStr"/>
@@ -14317,7 +14317,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>TotalReviews: 228</t>
+          <t>TotalReviews: 200</t>
         </is>
       </c>
       <c r="B922" t="inlineStr"/>
@@ -14332,7 +14332,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B923" t="inlineStr"/>
@@ -14347,7 +14347,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8496P1</t>
+          <t>PRODUCTCODE: 6874WINES</t>
         </is>
       </c>
       <c r="B924" t="inlineStr"/>
@@ -14362,7 +14362,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>Summarized description: Explore and feel Barcelona like a local by bike. Our expert English-speaking guides will show you the highlights of the city. You will appreciate the unique architecture of Barcelona from a different perspective.</t>
+          <t>Summarized description: Ride a comfortable ebike along the Barcelona Coastline to arrive to the village of Alella. Discover the Mediterranean towns of the Maresme Region with its fishing harbours and historical sites. Taste 4 excellent wines and enjoy a countryside lunch surrounded by nature.</t>
         </is>
       </c>
       <c r="B925" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Title: Barcelona Sightseeing Bike Tour</t>
+          <t>Title: Barcelona eBike Beach Tour to Vineyards, Wine Tasting &amp; Picnic</t>
         </is>
       </c>
       <c r="B926" t="inlineStr"/>
@@ -14392,7 +14392,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>TotalReviews: 107</t>
+          <t>TotalReviews: 115</t>
         </is>
       </c>
       <c r="B927" t="inlineStr"/>
@@ -14407,7 +14407,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B928" t="inlineStr"/>
@@ -14422,7 +14422,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6884HIGHLIGHTS</t>
+          <t>PRODUCTCODE: 7676P42</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14437,7 +14437,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>Summarized description: 3-hour bike tour led by an expert guide. See top attractions such as La Sagrada Familia and La Rambla. Learn about the Catalan capital's captivating history.</t>
+          <t>Summarized description: Explore Barcelona's hidden gems and iconic landmarks on an exciting e-bike tour. Immerse yourself in the art of winemaking with a visit to a picturesque vineyard. Then, unwind and find serenity aboard a luxurious sailing yacht, cruising along the stunning Barcelona coastline.</t>
         </is>
       </c>
       <c r="B930" t="inlineStr"/>
@@ -14452,7 +14452,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Title: Barcelona Highlights Bike Tour</t>
+          <t>Title: Ebike Tour, Winery, Wine Tasting &amp; Sailing Experience(car option)</t>
         </is>
       </c>
       <c r="B931" t="inlineStr"/>
@@ -14467,7 +14467,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>TotalReviews: 38</t>
+          <t>TotalReviews: 75</t>
         </is>
       </c>
       <c r="B932" t="inlineStr"/>
@@ -14482,7 +14482,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B933" t="inlineStr"/>
@@ -14497,7 +14497,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 58701P1</t>
+          <t>PRODUCTCODE: 131444P1</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14512,7 +14512,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>Summarized description: A relaxing bike ride along some of Barcelona’s most important monuments and sights. With amazing views, not only of the city, but also the beach and the mountains.</t>
+          <t>Summarized description: This is a nice cycling stage and also including the best views over the city. We will adapt the distance and difficulty to your needs. From 60 to 85 km including 3-4 climbs.</t>
         </is>
       </c>
       <c r="B935" t="inlineStr"/>
@@ -14527,7 +14527,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>Title: Barcelona Bike Tour</t>
+          <t>Title: The hills around Barcelona by roadbike, private tour. Pick up/drop off included.</t>
         </is>
       </c>
       <c r="B936" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>TotalReviews: 25</t>
+          <t>TotalReviews: 34</t>
         </is>
       </c>
       <c r="B937" t="inlineStr"/>
@@ -14557,7 +14557,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Health and Fitness Camps', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B938" t="inlineStr"/>
@@ -14572,7 +14572,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 72366P1</t>
+          <t>PRODUCTCODE: 9866P58</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14587,7 +14587,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>Summarized description: Our guides are here to share our knowledge and information of our beloved city via a bicycle tour of Barcelona. We hope you will join us on our tour of the Spanish capital.</t>
+          <t>Summarized description: Private bike tours in Barcelona are organized for individual travelers and groups. Join us on a fun-filled day as we ride by some of the most emblematic sites of the Catalan capital.</t>
         </is>
       </c>
       <c r="B940" t="inlineStr"/>
@@ -14602,7 +14602,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>Title: Guided Bike Tour of Barcelona</t>
+          <t>Title: Barcelona Private Bike Tour</t>
         </is>
       </c>
       <c r="B941" t="inlineStr"/>
@@ -14632,7 +14632,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B943" t="inlineStr"/>
@@ -14647,7 +14647,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 354846P1</t>
+          <t>PRODUCTCODE: 72366P1</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14662,7 +14662,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>Summarized description: The bike tour is fun, chilled and you'll finish the tour with a deeper understanding of the city. See sights including the Gothic Quarter, the Port Olímpic, the Sagrada Familia.</t>
+          <t>Summarized description: Our guides are here to share our knowledge and information of our beloved city via a bicycle tour of Barcelona. We hope you will join us on our tour of the Spanish capital.</t>
         </is>
       </c>
       <c r="B945" t="inlineStr"/>
@@ -14677,7 +14677,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>Title: Barcelona highlights bike tour</t>
+          <t>Title: Guided Bike Tour of Barcelona</t>
         </is>
       </c>
       <c r="B946" t="inlineStr"/>
@@ -14692,7 +14692,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 18</t>
         </is>
       </c>
       <c r="B947" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B948" t="inlineStr"/>
@@ -14722,7 +14722,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17424P1</t>
+          <t>PRODUCTCODE: 66330P1</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14737,7 +14737,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>Summarized description: The guided bike tour stick follows the bike lanes and pedestrian streets avoiding traffic wherever possible. The tour is designed for all ages to enjoy and stops are frequent and every hundred meters, to discuss the sights or have a drink.</t>
+          <t>Summarized description: Discover all the secrets of making wine and cava with this 7-hour small group tour. Stroll around the most beautiful wine routes of the Penedès wine region. Enjoy 2 premium tastings of organic wines &amp; cavas!</t>
         </is>
       </c>
       <c r="B950" t="inlineStr"/>
@@ -14752,7 +14752,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Title: Barcelona Guided Bike Tour</t>
+          <t>Title: From Barcelona: E-Bike Tour in the vineyards with 2 Wineries</t>
         </is>
       </c>
       <c r="B951" t="inlineStr"/>
@@ -14767,7 +14767,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>TotalReviews: 7</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B952" t="inlineStr"/>
@@ -14782,7 +14782,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B953" t="inlineStr"/>
@@ -14797,7 +14797,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 351463P2</t>
+          <t>PRODUCTCODE: 9927P2</t>
         </is>
       </c>
       <c r="B954" t="inlineStr"/>
@@ -14812,7 +14812,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>Summarized description: We provide tours with local guides in your main language by Regular Bikes, Electric Bikes and E-Scooters. We will do photo shooting in each stop and small video souvenir.</t>
+          <t>Summarized description: We are lovers of cycling, nature and wine and so we invite you to come to Penedès to enjoy an unforgettable day cycling among vineyards on our favorite means of transportation. We are visiting an ecologic winery and tasting the best wines and Cavas.</t>
         </is>
       </c>
       <c r="B955" t="inlineStr"/>
@@ -14827,7 +14827,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Barcelona City Bike Small Group Tour </t>
+          <t xml:space="preserve">Title: Barcelona: Wine e-Bike Half DayTour in Penedès </t>
         </is>
       </c>
       <c r="B956" t="inlineStr"/>
@@ -14842,7 +14842,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 10</t>
         </is>
       </c>
       <c r="B957" t="inlineStr"/>
@@ -14857,7 +14857,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Adventure Sports', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B958" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 155988P1</t>
+          <t>PRODUCTCODE: 6718P63</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14887,7 +14887,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>Summarized description: Two of the oldest Wineries in Penedés wine region, both leaders on producing excellent organic wines. You will learn how they mix traditional methods, inherited from ancestors for decades and innovative process.</t>
+          <t>Summarized description: The Barcelona Evening Bike Tour with Cava is a truly fun and memorable way to fully experience Barcelona like a local. Ride past the Inner Harbor, Barceloneta, the Olympic Village, Park Ciutadella, Arc de Triomf, as well as Barcelona’s famous Mercat del Born.</t>
         </is>
       </c>
       <c r="B960" t="inlineStr"/>
@@ -14902,7 +14902,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: WINE &amp; CAVA TOUR PENEDÉS: Visit 2 Wineries, wine tasting &amp; Tapas lunch </t>
+          <t>Title: Barcelona Evening Small Group Bike Tour with Cava | with Private Option</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -14932,7 +14932,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B963" t="inlineStr"/>
@@ -14947,7 +14947,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11982P1</t>
+          <t>PRODUCTCODE: 16637P10</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14962,7 +14962,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>Summarized description: 8-hour trip from Barcelona to the Penedes region. Discover artisanal food and wine of the region outside of the Barcelona. All transport, food samplings, entrance fees and a three-course lunch are included.</t>
+          <t>Summarized description: Barcelona to Sitges is a great way to experience the Catalan countryside. The two-hour tour includes a wine tasting and a visit to a local bodega.</t>
         </is>
       </c>
       <c r="B965" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Title: Penedes Region Wine and Food Tour with Transport from Barcelona</t>
+          <t xml:space="preserve">Title: Cava Wineyard &amp; Sitges Day Trip from Barcelona </t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P46</t>
+          <t>PRODUCTCODE: 9927P1</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>Summarized description: Private tour takes you to the verdant vineyards of the Penedes region. At the foot of the Montserrat Mountain, visit a family run vineyards that has been cultivating grapes since 1385.</t>
+          <t>Summarized description: We are lovers of cycling, nature and wine. We are visiting an ecologic winery and tasting the best wines and Cavas. There is nothing better than eating a brunch to taste local products.</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Title: Private Cava and Vineyards Half-Day Tour with Hotel pick-up from Barcelona</t>
+          <t>Title: Barcelona: Wine &amp; eBike Full Day Guided Tour in Penedès</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Adventure Sports', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11982P2</t>
+          <t>PRODUCTCODE: 87696P2</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15112,7 +15112,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>Summarized description: Taste renowned Spanish wines at Penedes’ top wineries. Learn about the growing and winemaking process from the winemakers themselves.</t>
+          <t>Summarized description: Enjoy a wonderful 4hr bike ride through Barcelona. Learn about Catalan customs, culture, history and architecture. Let yourself be swept away by the beautiful sights, such as Sagrada Familia.</t>
         </is>
       </c>
       <c r="B975" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Title: Winery and Wine Tasting Tour in el Penedes from Barcelona</t>
+          <t>Title: Barcelona Half-Day Bike Tour</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P54</t>
+          <t>PRODUCTCODE: 420878P1</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the world of wine on a walk through the vineyards and cellars. Learn all about the traditional method champenoise used in the elaboration of Cava. This is your opportunity to indulge in the delicious local cuisine, paired with the region's most representative wines.</t>
+          <t>Summarized description: Barcelona bike night tours are a fantastic way to discover the city's vibrant streets. A unique view of Barcelona is revealed when the sun sets and the city comes alive.</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Title: Wine Cava and Gastronomy Small Group Penedés Tour with Hotel Pick Up</t>
+          <t>Title: E-bike Night Tour Barcelona</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 50881P4</t>
+          <t>PRODUCTCODE: 89313P1</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>Summarized description: Penedès can not be understood without its wines and cavas. Pedal through vineyards, hills, and ride the bike along roads with little traffic. A quiet itinerary will lead us back to Vilafranca through the village of Lleger.</t>
+          <t>Summarized description: Discover Barcelona on a bike tour. Ride over bike lanes, pedestrian paths, and parks and gardens to the city's most beautiful sights. Admire the old architecture, enjoy the views from the beach and discover the hidden corners of the city.</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Title: Cycle the Penedès Vineyards</t>
+          <t>Title: Barcelona: Highlights Bike Tour</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 144682P50</t>
+          <t>PRODUCTCODE: 7728P3</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>Summarized description: We start the day in Gratallops, the most spectacular vineyard fields in Catalonia. The visit to one of the local wine cellars is essential. We will go to La Figuera, the best viewpoint of the Priorat, and see the Pyrenees.</t>
+          <t>Summarized description: 4-hour private electric bike tour cycling through World Heritage monuments and attractions of Barcelona. Make the most of your visit to this city and admire all its main highlights in an effortless way.</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Title: Priorat, Wines &amp; History - Small group and hotel pick up from Barcelona</t>
+          <t xml:space="preserve">Title: Private e-Bike Tour | Barcelona Highlights </t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 139140P67</t>
+          <t>PRODUCTCODE: 191356P1</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>Summarized description: Wine tasting and lunch included in a very nice cava winery located in the heart of the Penedes wine region. Private licensed fully-insured air-conditioned comfortable Vehicles are available.</t>
+          <t>Summarized description: Barcelona by bike tours are designed to give you the most unique experience. Each of our individual Barcelona by Bike tours is designed for giving you the best possible experience.</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Title: Barcelona Countryside Fullday Wine&amp;Cava Tour with Lunch</t>
+          <t>Title: Your individual Barcelona by bike tour</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 172138P6</t>
+          <t>PRODUCTCODE: 66330P2</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>Summarized description: Small-group wine and cava tour of the Penedés region. Visit established wineries that display premium Catalan cava. Discover the secrets of traditional and modern manufacturing processes.</t>
+          <t>Summarized description: Discover all the secrets of making wine and cava with this 4-hour small group E-bike tour. Stroll around the most beautiful wine routes of Penedès with a wonderful view of the "Massif de Montserrat" Visit an authentic family-owned winery and enjoy 2 premium tastings of organic wines &amp; cavas.</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Title: Wine Cellar Penedés Tour</t>
+          <t>Title: E-Bike Tour in the vineyards with 2 Wineries</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320728P2229</t>
+          <t>PRODUCTCODE: 50881P5</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>Summarized description: Half-Day Private Penedes Wine Tour takes in Sant Sadurni d'Anoia and Finca Ca n'Estella wineries. Expert sommeliers and winemakers will guide you through tastings of exceptional Cava varietals.</t>
+          <t>Summarized description: The north Penedès, mosaic of vineyards and wooded streams, awaits us in this journey filled with small caves, scattered farmhouses and churches. Discover the essence of a wine region that offers much more than what it seems.</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Title: Half-Day Private Penedes Wine Tour Experience from Barcelona</t>
+          <t>Title: Wine Country Bike Tour (Rent roadbike, Visit winery &amp; Lunch)</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 50881P7</t>
+          <t>PRODUCTCODE: 172305P76</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>Summarized description: The north Penedès is a mosaic of vineyards and wooded streams. Small caves, scattered farmhouses and churches make up the essence of the region. A downhill route will take us back to Vilafranca.</t>
+          <t>Summarized description: Meet Alella with a small group of people, taste the wines from her famous family winery, and stroll through her centuries-old vineyards. Enjoy a unique wine experience and marvel at the beautiful landscape of the Mediterranean Sea.</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Title: Active Roadbike tour Penedès (Rent roadbike &amp; breakfast tasting menu)</t>
+          <t>Title:  E-Bike Barcelona Coast and Vineyards With Wine Tasting (PRIVATE)</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P1</t>
+          <t>PRODUCTCODE: 9866P120</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the secrets of making wine and cava with this premium e-bike tour. Stroll around the most beautiful wine routes of Penedès with a wonderful view of Montserrat.</t>
+          <t>Summarized description: E-bike ride through the emblematic Mediterranean coast of Barcelona. Visit renowned neighborhoods and pedal through the traditional towns Alella, El Masnou and Badalona en route to the Alta Alella Winery.</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Title: E-bike tour to Penedès private vineyard with organic wine &amp; cava tasting</t>
+          <t>Title: Wine tasting &amp; E-bike Barcelona's coastline Small Group tour</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 38450P2</t>
+          <t>PRODUCTCODE: 9866P46</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>Summarized description: Experience rural Penedès at its best on excellent and comfortable Kalkhoff bikes. Dine in a traditional restaurant populated with locals. Soak up the sweet rhythm of generations of wine farming.</t>
+          <t>Summarized description: Private tour takes you to the verdant vineyards of the Penedes region. At the foot of the Montserrat Mountain, visit a family run vineyards that has been cultivating grapes since 1385.</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Title: Classic Penedès Bike Cava Food Wine Full-Day Tour</t>
+          <t>Title: Private Cava and Vineyards Half-Day Tour with Hotel pick-up from Barcelona</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 240855P1</t>
+          <t>PRODUCTCODE: 50881P9</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy Costa Brava's amazing beaches and hidden paths by ebike. We will drive you in a private van from Barcelona center to Palamós. From there we will show you how easy is to ride an ebike in a twinkling of an eye.</t>
+          <t>Summarized description: Visit 3 wineries, taste a glass of wine or cava and share a few minutes with the owners or professionals of the winery. Start and finish in Vilafranca del Penedès, just 45 minutes from the center of Barcelona by train or 30 minutes by Bus.</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Title: From Barcelona: Discover Costa Brava by ebike!</t>
+          <t>Title: TASTE and GO! 3 BIKE &amp; WINE TOUR - Visit 3 wineries with welcome and tasting cup</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Scenic Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6874P150</t>
+          <t>PRODUCTCODE: 50881P6</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>Summarized description: Sail along the Barcelona coast with an assortment of Spanish snacks accompanied by soft or alcoholic drinks. Live an exclusive sailing experience on board a luxury sailboat and sail to one of the oldest wine regions in Spain.</t>
+          <t>Summarized description: Oriol Rossell cavas will expect us at its cellars, where we enter the world of wine in a family farm dedicated to viticulture since the seventeenth century. From there the road will lead us through the Castellet Castle and the Foix reservoir, to the highest point of the day.</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Title: Private Sailing from Barcelona to the Vineyards with Wine Tasting</t>
+          <t>Title: Penèdes Cava &amp; Wine Bike Tour (Rent Bicycle &amp; 2 visits to wineries)</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Cruises']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6343P9</t>
+          <t>PRODUCTCODE: 9866P54</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>Summarized description: Tapas Tasting Electric Bike Tour is a gastronomic journey through the heart of Barcelona. As you glide on our eco-friendly electric bikes, the tour unfolds like a travelogue, seamlessly integrating the exploration of four main sights.</t>
+          <t>Summarized description: Discover the world of wine on a walk through the vineyards and cellars. Learn all about the traditional method champenoise used in the elaboration of Cava. This is your opportunity to indulge in the delicious local cuisine, paired with the region's most representative wines.</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Title: Tapas Tasting E-Bike Tour in Barcelona</t>
+          <t>Title: Wine Cava and Gastronomy Small Group Penedés Tour with Hotel Pick Up</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Scenic Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6874P129</t>
+          <t>PRODUCTCODE: 50881P4</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>Summarized description: Experience Barcelona’s holy mountain, Montserrat, riding the funicular as far as the Natural Park, and then ascending to the top during a 1-hour trek. Drive the coolest, most comfortable and safest E-Bikes in town, relish a Cable-car ride and and trip by Eco Boat along the coast for an amazing sightseeing experience.</t>
+          <t>Summarized description: Penedès can not be understood without its wines and cavas. Pedal through vineyards, hills, and ride the bike along roads with little traffic. A quiet itinerary will lead us back to Vilafranca through the village of Lleger.</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Title: Barcelona &amp; Montserrat, eBike &amp; Hike.</t>
+          <t>Title: Cycle the Penedès Vineyards</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'Water Sports', 'City Tours']</t>
+          <t>Category: ['Culinary Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2140SITGES</t>
+          <t>PRODUCTCODE: 8693P10</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Catalonia’s cava heritage and visit Sitges on this full-day trip from Barcelona. Travel into the countryside to visit the Freixenet Cava Cellars. Then visit the Bacardi House museum to unravel the famous Sitges-Bacardi connection.</t>
+          <t>Summarized description: You can enjoy a day outdoors in an idyllic setting. Surrounded by vineyards and forests. You can also taste the best wines produced by the winery.</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Title: Full-Day Freixenet Cava Cellars, Sitges and Bacardi House Tour from Barcelona</t>
+          <t>Title: Electric Bicycle Route And Wine Tasting</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 264683P62</t>
+          <t>PRODUCTCODE: 24380P1360</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>Summarized description: Wine and gastronomy are part of the popular culture of Catalonia. In this tour you will learn everything there is to know about the fascinating world of wine. Located in an area between the sea and the mountains, Penedès is a privileged place for winemaking.</t>
+          <t>Summarized description: Enjoy the most unique architectural masterpieces in Europe on a bike tour. A local can take you to the most popular Gaudi sights while telling you unique stories about the artist.</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Title: Wine Cellars and Cava With Tasting, Tapas and 4x4</t>
+          <t>Title: 3 Hours Cycling Tour in Barcelona with Local Guide</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 108053P20</t>
+          <t>PRODUCTCODE: 8496P5</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>Summarized description: Penedes region is the biggest wine region in Catalonia. In this tour you will visit 2 wineries. Ticket fees are included in the price of the tour.</t>
+          <t>Summarized description: This is a tour suitable for everybody, both adults and children. You will mostly ride on bike lanes and pedestrian areas. Just choose the date, number of people, language and other requirements.</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Title: Wine tour - Penedes wine region - (2 wineries included)</t>
+          <t xml:space="preserve">Title: PRIVATE - Barcelona Parks and Beaches Bike Tour </t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3394P38</t>
+          <t>PRODUCTCODE: 211674P4</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>Summarized description: Half day Private guided tour with a Private transportation to Barcelona’s Vineyards. Discover the Penedes wine area with a local expert guide in Catalan food and wine. Enjoy the sunset in the Vineyards with Cava and Snacks.</t>
+          <t>Summarized description: We offer a high quality service bases on our guides experience. We have the coolest bikes in town, those beautiful wooden bikes and we offer ahigh quality service.</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Title: Cava Tasting and Private Cooking Dinner Class in Penedes-Half Day from Barcelona</t>
+          <t>Title: Architecture bike tour</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours', 'Dining Experiences']</t>
+          <t>Category: ['Transportation &amp; Travel Services', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 23558P7</t>
+          <t>PRODUCTCODE: 25160P1</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>Summarized description: Sitges is renowned worldwide for its Film Festival and Carnival. It is also known for its beaches, nightspots and historical sites. Learn about the wine production at a famous wine cellar in the Penedes.</t>
+          <t>Summarized description: Private 4-hour cycling tour with a professional photographer. See landmarks like La Sagrada Familia, Casa Milà and Casa Batlló. Ride around the beautiful Parc de la Ciutadella.</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Title: Private Tour: Sitges and Wine Tasting Penedés</t>
+          <t>Title: Private Vintage Bike and Photography Tour in Barcelona</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 332541P594</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16534,6 +16534,1281 @@
       <c r="H1069" t="inlineStr"/>
       <c r="I1069" t="inlineStr"/>
     </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>Summarized description: Choose one of our excellent tour options tailored to your needs and interests. Fall in love with Barcelona Old Town highlights, monuments and urban nature on an eco-friendly cycling tour.</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr"/>
+      <c r="C1070" t="inlineStr"/>
+      <c r="D1070" t="inlineStr"/>
+      <c r="E1070" t="inlineStr"/>
+      <c r="F1070" t="inlineStr"/>
+      <c r="G1070" t="inlineStr"/>
+      <c r="H1070" t="inlineStr"/>
+      <c r="I1070" t="inlineStr"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>Title: Bike Tour of Barcelona Old Town, Top Attractions and Nature</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr"/>
+      <c r="C1071" t="inlineStr"/>
+      <c r="D1071" t="inlineStr"/>
+      <c r="E1071" t="inlineStr"/>
+      <c r="F1071" t="inlineStr"/>
+      <c r="G1071" t="inlineStr"/>
+      <c r="H1071" t="inlineStr"/>
+      <c r="I1071" t="inlineStr"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr"/>
+      <c r="C1072" t="inlineStr"/>
+      <c r="D1072" t="inlineStr"/>
+      <c r="E1072" t="inlineStr"/>
+      <c r="F1072" t="inlineStr"/>
+      <c r="G1072" t="inlineStr"/>
+      <c r="H1072" t="inlineStr"/>
+      <c r="I1072" t="inlineStr"/>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr"/>
+      <c r="C1073" t="inlineStr"/>
+      <c r="D1073" t="inlineStr"/>
+      <c r="E1073" t="inlineStr"/>
+      <c r="F1073" t="inlineStr"/>
+      <c r="G1073" t="inlineStr"/>
+      <c r="H1073" t="inlineStr"/>
+      <c r="I1073" t="inlineStr"/>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 361669P1</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr"/>
+      <c r="C1074" t="inlineStr"/>
+      <c r="D1074" t="inlineStr"/>
+      <c r="E1074" t="inlineStr"/>
+      <c r="F1074" t="inlineStr"/>
+      <c r="G1074" t="inlineStr"/>
+      <c r="H1074" t="inlineStr"/>
+      <c r="I1074" t="inlineStr"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>Summarized description: Enjoy 2 excellent winery tours led by an English-speaking winery professional. Explore the quaint medieval village of Castellet i la Gornal. Choose among different gourmet dishes for a Catalán lunch complete with local wine.</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr"/>
+      <c r="C1075" t="inlineStr"/>
+      <c r="D1075" t="inlineStr"/>
+      <c r="E1075" t="inlineStr"/>
+      <c r="F1075" t="inlineStr"/>
+      <c r="G1075" t="inlineStr"/>
+      <c r="H1075" t="inlineStr"/>
+      <c r="I1075" t="inlineStr"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>Title: Private Vineyards and Villages Wine Tour with Lunch with pickup from Barcelona</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr"/>
+      <c r="C1076" t="inlineStr"/>
+      <c r="D1076" t="inlineStr"/>
+      <c r="E1076" t="inlineStr"/>
+      <c r="F1076" t="inlineStr"/>
+      <c r="G1076" t="inlineStr"/>
+      <c r="H1076" t="inlineStr"/>
+      <c r="I1076" t="inlineStr"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr"/>
+      <c r="C1077" t="inlineStr"/>
+      <c r="D1077" t="inlineStr"/>
+      <c r="E1077" t="inlineStr"/>
+      <c r="F1077" t="inlineStr"/>
+      <c r="G1077" t="inlineStr"/>
+      <c r="H1077" t="inlineStr"/>
+      <c r="I1077" t="inlineStr"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr"/>
+      <c r="C1078" t="inlineStr"/>
+      <c r="D1078" t="inlineStr"/>
+      <c r="E1078" t="inlineStr"/>
+      <c r="F1078" t="inlineStr"/>
+      <c r="G1078" t="inlineStr"/>
+      <c r="H1078" t="inlineStr"/>
+      <c r="I1078" t="inlineStr"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 139140P67</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr"/>
+      <c r="C1079" t="inlineStr"/>
+      <c r="D1079" t="inlineStr"/>
+      <c r="E1079" t="inlineStr"/>
+      <c r="F1079" t="inlineStr"/>
+      <c r="G1079" t="inlineStr"/>
+      <c r="H1079" t="inlineStr"/>
+      <c r="I1079" t="inlineStr"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>Summarized description: Wine tasting and lunch included in a very nice cava winery located in the heart of the Penedes wine region. Private licensed fully-insured air-conditioned comfortable Vehicles are available.</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr"/>
+      <c r="C1080" t="inlineStr"/>
+      <c r="D1080" t="inlineStr"/>
+      <c r="E1080" t="inlineStr"/>
+      <c r="F1080" t="inlineStr"/>
+      <c r="G1080" t="inlineStr"/>
+      <c r="H1080" t="inlineStr"/>
+      <c r="I1080" t="inlineStr"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>Title: Barcelona Countryside Fullday Wine&amp;Cava Tour with Lunch</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr"/>
+      <c r="C1081" t="inlineStr"/>
+      <c r="D1081" t="inlineStr"/>
+      <c r="E1081" t="inlineStr"/>
+      <c r="F1081" t="inlineStr"/>
+      <c r="G1081" t="inlineStr"/>
+      <c r="H1081" t="inlineStr"/>
+      <c r="I1081" t="inlineStr"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr"/>
+      <c r="C1082" t="inlineStr"/>
+      <c r="D1082" t="inlineStr"/>
+      <c r="E1082" t="inlineStr"/>
+      <c r="F1082" t="inlineStr"/>
+      <c r="G1082" t="inlineStr"/>
+      <c r="H1082" t="inlineStr"/>
+      <c r="I1082" t="inlineStr"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr"/>
+      <c r="C1083" t="inlineStr"/>
+      <c r="D1083" t="inlineStr"/>
+      <c r="E1083" t="inlineStr"/>
+      <c r="F1083" t="inlineStr"/>
+      <c r="G1083" t="inlineStr"/>
+      <c r="H1083" t="inlineStr"/>
+      <c r="I1083" t="inlineStr"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 9866P126</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr"/>
+      <c r="C1084" t="inlineStr"/>
+      <c r="D1084" t="inlineStr"/>
+      <c r="E1084" t="inlineStr"/>
+      <c r="F1084" t="inlineStr"/>
+      <c r="G1084" t="inlineStr"/>
+      <c r="H1084" t="inlineStr"/>
+      <c r="I1084" t="inlineStr"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>Summarized description: Private e-bike ride through the emblematic Mediterranean coast of Barcelona. Visit renowned neighborhoods and pedal through the traditional towns Alella, El Masnou and Badalona en route to the Alta Alella Winery.</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr"/>
+      <c r="C1085" t="inlineStr"/>
+      <c r="D1085" t="inlineStr"/>
+      <c r="E1085" t="inlineStr"/>
+      <c r="F1085" t="inlineStr"/>
+      <c r="G1085" t="inlineStr"/>
+      <c r="H1085" t="inlineStr"/>
+      <c r="I1085" t="inlineStr"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>Title: Private wine tasting &amp; E-bike Barcelona's coastline Small Group tour</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr"/>
+      <c r="C1086" t="inlineStr"/>
+      <c r="D1086" t="inlineStr"/>
+      <c r="E1086" t="inlineStr"/>
+      <c r="F1086" t="inlineStr"/>
+      <c r="G1086" t="inlineStr"/>
+      <c r="H1086" t="inlineStr"/>
+      <c r="I1086" t="inlineStr"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr"/>
+      <c r="C1087" t="inlineStr"/>
+      <c r="D1087" t="inlineStr"/>
+      <c r="E1087" t="inlineStr"/>
+      <c r="F1087" t="inlineStr"/>
+      <c r="G1087" t="inlineStr"/>
+      <c r="H1087" t="inlineStr"/>
+      <c r="I1087" t="inlineStr"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours']</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr"/>
+      <c r="C1088" t="inlineStr"/>
+      <c r="D1088" t="inlineStr"/>
+      <c r="E1088" t="inlineStr"/>
+      <c r="F1088" t="inlineStr"/>
+      <c r="G1088" t="inlineStr"/>
+      <c r="H1088" t="inlineStr"/>
+      <c r="I1088" t="inlineStr"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 50881P7</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr"/>
+      <c r="C1089" t="inlineStr"/>
+      <c r="D1089" t="inlineStr"/>
+      <c r="E1089" t="inlineStr"/>
+      <c r="F1089" t="inlineStr"/>
+      <c r="G1089" t="inlineStr"/>
+      <c r="H1089" t="inlineStr"/>
+      <c r="I1089" t="inlineStr"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>Summarized description: The north Penedès is a mosaic of vineyards and wooded streams. Small caves, scattered farmhouses and churches make up the essence of the region. A downhill route will take us back to Vilafranca.</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr"/>
+      <c r="C1090" t="inlineStr"/>
+      <c r="D1090" t="inlineStr"/>
+      <c r="E1090" t="inlineStr"/>
+      <c r="F1090" t="inlineStr"/>
+      <c r="G1090" t="inlineStr"/>
+      <c r="H1090" t="inlineStr"/>
+      <c r="I1090" t="inlineStr"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>Title: Active Roadbike tour Penedès (Rent roadbike &amp; breakfast tasting menu)</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr"/>
+      <c r="C1091" t="inlineStr"/>
+      <c r="D1091" t="inlineStr"/>
+      <c r="E1091" t="inlineStr"/>
+      <c r="F1091" t="inlineStr"/>
+      <c r="G1091" t="inlineStr"/>
+      <c r="H1091" t="inlineStr"/>
+      <c r="I1091" t="inlineStr"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr"/>
+      <c r="C1092" t="inlineStr"/>
+      <c r="D1092" t="inlineStr"/>
+      <c r="E1092" t="inlineStr"/>
+      <c r="F1092" t="inlineStr"/>
+      <c r="G1092" t="inlineStr"/>
+      <c r="H1092" t="inlineStr"/>
+      <c r="I1092" t="inlineStr"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>Category: ['Scenic Tours']</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr"/>
+      <c r="C1093" t="inlineStr"/>
+      <c r="D1093" t="inlineStr"/>
+      <c r="E1093" t="inlineStr"/>
+      <c r="F1093" t="inlineStr"/>
+      <c r="G1093" t="inlineStr"/>
+      <c r="H1093" t="inlineStr"/>
+      <c r="I1093" t="inlineStr"/>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 8693P11</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr"/>
+      <c r="C1094" t="inlineStr"/>
+      <c r="D1094" t="inlineStr"/>
+      <c r="E1094" t="inlineStr"/>
+      <c r="F1094" t="inlineStr"/>
+      <c r="G1094" t="inlineStr"/>
+      <c r="H1094" t="inlineStr"/>
+      <c r="I1094" t="inlineStr"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>Summarized description: With the bike route you can visit the places and vineyards around the winery. You will enjoy exceptional views and end your day outdoors with our barbecue menu.</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr"/>
+      <c r="C1095" t="inlineStr"/>
+      <c r="D1095" t="inlineStr"/>
+      <c r="E1095" t="inlineStr"/>
+      <c r="F1095" t="inlineStr"/>
+      <c r="G1095" t="inlineStr"/>
+      <c r="H1095" t="inlineStr"/>
+      <c r="I1095" t="inlineStr"/>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>Title: Bike and food route in the winery's restaurant</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr"/>
+      <c r="C1096" t="inlineStr"/>
+      <c r="D1096" t="inlineStr"/>
+      <c r="E1096" t="inlineStr"/>
+      <c r="F1096" t="inlineStr"/>
+      <c r="G1096" t="inlineStr"/>
+      <c r="H1096" t="inlineStr"/>
+      <c r="I1096" t="inlineStr"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr"/>
+      <c r="C1097" t="inlineStr"/>
+      <c r="D1097" t="inlineStr"/>
+      <c r="E1097" t="inlineStr"/>
+      <c r="F1097" t="inlineStr"/>
+      <c r="G1097" t="inlineStr"/>
+      <c r="H1097" t="inlineStr"/>
+      <c r="I1097" t="inlineStr"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>Category: ['Hiking', 'Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr"/>
+      <c r="C1098" t="inlineStr"/>
+      <c r="D1098" t="inlineStr"/>
+      <c r="E1098" t="inlineStr"/>
+      <c r="F1098" t="inlineStr"/>
+      <c r="G1098" t="inlineStr"/>
+      <c r="H1098" t="inlineStr"/>
+      <c r="I1098" t="inlineStr"/>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 2140_C2JBARCELONA</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr"/>
+      <c r="C1099" t="inlineStr"/>
+      <c r="D1099" t="inlineStr"/>
+      <c r="E1099" t="inlineStr"/>
+      <c r="F1099" t="inlineStr"/>
+      <c r="G1099" t="inlineStr"/>
+      <c r="H1099" t="inlineStr"/>
+      <c r="I1099" t="inlineStr"/>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>Summarized description: Small-group tour to Sitges, Tarragona and Santes Creus. Enjoy a wine tasting at Bodegas Torres, one of the most famous wineries.</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr"/>
+      <c r="C1100" t="inlineStr"/>
+      <c r="D1100" t="inlineStr"/>
+      <c r="E1100" t="inlineStr"/>
+      <c r="F1100" t="inlineStr"/>
+      <c r="G1100" t="inlineStr"/>
+      <c r="H1100" t="inlineStr"/>
+      <c r="I1100" t="inlineStr"/>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>Title: 2-Day Small Group Tour from Barcelona including Sitges, Tarragona and Santes Creus</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr"/>
+      <c r="C1101" t="inlineStr"/>
+      <c r="D1101" t="inlineStr"/>
+      <c r="E1101" t="inlineStr"/>
+      <c r="F1101" t="inlineStr"/>
+      <c r="G1101" t="inlineStr"/>
+      <c r="H1101" t="inlineStr"/>
+      <c r="I1101" t="inlineStr"/>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr"/>
+      <c r="C1102" t="inlineStr"/>
+      <c r="D1102" t="inlineStr"/>
+      <c r="E1102" t="inlineStr"/>
+      <c r="F1102" t="inlineStr"/>
+      <c r="G1102" t="inlineStr"/>
+      <c r="H1102" t="inlineStr"/>
+      <c r="I1102" t="inlineStr"/>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr"/>
+      <c r="C1103" t="inlineStr"/>
+      <c r="D1103" t="inlineStr"/>
+      <c r="E1103" t="inlineStr"/>
+      <c r="F1103" t="inlineStr"/>
+      <c r="G1103" t="inlineStr"/>
+      <c r="H1103" t="inlineStr"/>
+      <c r="I1103" t="inlineStr"/>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 22869P152</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr"/>
+      <c r="C1104" t="inlineStr"/>
+      <c r="D1104" t="inlineStr"/>
+      <c r="E1104" t="inlineStr"/>
+      <c r="F1104" t="inlineStr"/>
+      <c r="G1104" t="inlineStr"/>
+      <c r="H1104" t="inlineStr"/>
+      <c r="I1104" t="inlineStr"/>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>Summarized description: Girona is an ancient Roman city built on the Via Augusta itself. Sitges is a coastal town where you can walk along its promenade.</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr"/>
+      <c r="C1105" t="inlineStr"/>
+      <c r="D1105" t="inlineStr"/>
+      <c r="E1105" t="inlineStr"/>
+      <c r="F1105" t="inlineStr"/>
+      <c r="G1105" t="inlineStr"/>
+      <c r="H1105" t="inlineStr"/>
+      <c r="I1105" t="inlineStr"/>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>Title: Girona and Sitges from Barcelona with professional guide</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr"/>
+      <c r="C1106" t="inlineStr"/>
+      <c r="D1106" t="inlineStr"/>
+      <c r="E1106" t="inlineStr"/>
+      <c r="F1106" t="inlineStr"/>
+      <c r="G1106" t="inlineStr"/>
+      <c r="H1106" t="inlineStr"/>
+      <c r="I1106" t="inlineStr"/>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr"/>
+      <c r="C1107" t="inlineStr"/>
+      <c r="D1107" t="inlineStr"/>
+      <c r="E1107" t="inlineStr"/>
+      <c r="F1107" t="inlineStr"/>
+      <c r="G1107" t="inlineStr"/>
+      <c r="H1107" t="inlineStr"/>
+      <c r="I1107" t="inlineStr"/>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr"/>
+      <c r="C1108" t="inlineStr"/>
+      <c r="D1108" t="inlineStr"/>
+      <c r="E1108" t="inlineStr"/>
+      <c r="F1108" t="inlineStr"/>
+      <c r="G1108" t="inlineStr"/>
+      <c r="H1108" t="inlineStr"/>
+      <c r="I1108" t="inlineStr"/>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 38450P2</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr"/>
+      <c r="C1109" t="inlineStr"/>
+      <c r="D1109" t="inlineStr"/>
+      <c r="E1109" t="inlineStr"/>
+      <c r="F1109" t="inlineStr"/>
+      <c r="G1109" t="inlineStr"/>
+      <c r="H1109" t="inlineStr"/>
+      <c r="I1109" t="inlineStr"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>Summarized description: Experience rural Penedès at its best on excellent and comfortable Kalkhoff bikes. Dine in a traditional restaurant populated with locals. Soak up the sweet rhythm of generations of wine farming.</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr"/>
+      <c r="C1110" t="inlineStr"/>
+      <c r="D1110" t="inlineStr"/>
+      <c r="E1110" t="inlineStr"/>
+      <c r="F1110" t="inlineStr"/>
+      <c r="G1110" t="inlineStr"/>
+      <c r="H1110" t="inlineStr"/>
+      <c r="I1110" t="inlineStr"/>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>Title: Classic Penedès Bike Cava Food Wine Full-Day Tour</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr"/>
+      <c r="C1111" t="inlineStr"/>
+      <c r="D1111" t="inlineStr"/>
+      <c r="E1111" t="inlineStr"/>
+      <c r="F1111" t="inlineStr"/>
+      <c r="G1111" t="inlineStr"/>
+      <c r="H1111" t="inlineStr"/>
+      <c r="I1111" t="inlineStr"/>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr"/>
+      <c r="C1112" t="inlineStr"/>
+      <c r="D1112" t="inlineStr"/>
+      <c r="E1112" t="inlineStr"/>
+      <c r="F1112" t="inlineStr"/>
+      <c r="G1112" t="inlineStr"/>
+      <c r="H1112" t="inlineStr"/>
+      <c r="I1112" t="inlineStr"/>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr"/>
+      <c r="C1113" t="inlineStr"/>
+      <c r="D1113" t="inlineStr"/>
+      <c r="E1113" t="inlineStr"/>
+      <c r="F1113" t="inlineStr"/>
+      <c r="G1113" t="inlineStr"/>
+      <c r="H1113" t="inlineStr"/>
+      <c r="I1113" t="inlineStr"/>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 89313P3</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr"/>
+      <c r="C1114" t="inlineStr"/>
+      <c r="D1114" t="inlineStr"/>
+      <c r="E1114" t="inlineStr"/>
+      <c r="F1114" t="inlineStr"/>
+      <c r="G1114" t="inlineStr"/>
+      <c r="H1114" t="inlineStr"/>
+      <c r="I1114" t="inlineStr"/>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>Summarized description: Discover Barcelona on a bike tour. Ride over bike lanes, pedestrian paths, and parks and gardens to the city's most beautiful sights. Admire the old architecture, enjoy the views from the beach and discover the hidden corners of the city.</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr"/>
+      <c r="C1115" t="inlineStr"/>
+      <c r="D1115" t="inlineStr"/>
+      <c r="E1115" t="inlineStr"/>
+      <c r="F1115" t="inlineStr"/>
+      <c r="G1115" t="inlineStr"/>
+      <c r="H1115" t="inlineStr"/>
+      <c r="I1115" t="inlineStr"/>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>Title: Barcelona: Highlights Bike Tour</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr"/>
+      <c r="C1116" t="inlineStr"/>
+      <c r="D1116" t="inlineStr"/>
+      <c r="E1116" t="inlineStr"/>
+      <c r="F1116" t="inlineStr"/>
+      <c r="G1116" t="inlineStr"/>
+      <c r="H1116" t="inlineStr"/>
+      <c r="I1116" t="inlineStr"/>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr"/>
+      <c r="C1117" t="inlineStr"/>
+      <c r="D1117" t="inlineStr"/>
+      <c r="E1117" t="inlineStr"/>
+      <c r="F1117" t="inlineStr"/>
+      <c r="G1117" t="inlineStr"/>
+      <c r="H1117" t="inlineStr"/>
+      <c r="I1117" t="inlineStr"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours']</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr"/>
+      <c r="C1118" t="inlineStr"/>
+      <c r="D1118" t="inlineStr"/>
+      <c r="E1118" t="inlineStr"/>
+      <c r="F1118" t="inlineStr"/>
+      <c r="G1118" t="inlineStr"/>
+      <c r="H1118" t="inlineStr"/>
+      <c r="I1118" t="inlineStr"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 425908P1</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr"/>
+      <c r="C1119" t="inlineStr"/>
+      <c r="D1119" t="inlineStr"/>
+      <c r="E1119" t="inlineStr"/>
+      <c r="F1119" t="inlineStr"/>
+      <c r="G1119" t="inlineStr"/>
+      <c r="H1119" t="inlineStr"/>
+      <c r="I1119" t="inlineStr"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>Summarized description: The bike ride will logically start from an earlier period in the "biography" of Barcelona. Exploring the Born district and the Gothic streets with a breeze. You will catch the spirit of the Middle Ages.</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr"/>
+      <c r="C1120" t="inlineStr"/>
+      <c r="D1120" t="inlineStr"/>
+      <c r="E1120" t="inlineStr"/>
+      <c r="F1120" t="inlineStr"/>
+      <c r="G1120" t="inlineStr"/>
+      <c r="H1120" t="inlineStr"/>
+      <c r="I1120" t="inlineStr"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>Title: Barcelona by Bike: from Gothic to Modern</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr"/>
+      <c r="C1121" t="inlineStr"/>
+      <c r="D1121" t="inlineStr"/>
+      <c r="E1121" t="inlineStr"/>
+      <c r="F1121" t="inlineStr"/>
+      <c r="G1121" t="inlineStr"/>
+      <c r="H1121" t="inlineStr"/>
+      <c r="I1121" t="inlineStr"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1122" t="inlineStr"/>
+      <c r="C1122" t="inlineStr"/>
+      <c r="D1122" t="inlineStr"/>
+      <c r="E1122" t="inlineStr"/>
+      <c r="F1122" t="inlineStr"/>
+      <c r="G1122" t="inlineStr"/>
+      <c r="H1122" t="inlineStr"/>
+      <c r="I1122" t="inlineStr"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1123" t="inlineStr"/>
+      <c r="C1123" t="inlineStr"/>
+      <c r="D1123" t="inlineStr"/>
+      <c r="E1123" t="inlineStr"/>
+      <c r="F1123" t="inlineStr"/>
+      <c r="G1123" t="inlineStr"/>
+      <c r="H1123" t="inlineStr"/>
+      <c r="I1123" t="inlineStr"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 6343P9</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr"/>
+      <c r="C1124" t="inlineStr"/>
+      <c r="D1124" t="inlineStr"/>
+      <c r="E1124" t="inlineStr"/>
+      <c r="F1124" t="inlineStr"/>
+      <c r="G1124" t="inlineStr"/>
+      <c r="H1124" t="inlineStr"/>
+      <c r="I1124" t="inlineStr"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>Summarized description: Tapas Tasting Electric Bike Tour is a gastronomic journey through the heart of Barcelona. As you glide on our eco-friendly electric bikes, the tour unfolds like a travelogue, seamlessly integrating the exploration of four main sights.</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr"/>
+      <c r="C1125" t="inlineStr"/>
+      <c r="D1125" t="inlineStr"/>
+      <c r="E1125" t="inlineStr"/>
+      <c r="F1125" t="inlineStr"/>
+      <c r="G1125" t="inlineStr"/>
+      <c r="H1125" t="inlineStr"/>
+      <c r="I1125" t="inlineStr"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>Title: Tapas Tasting E-Bike Tour in Barcelona</t>
+        </is>
+      </c>
+      <c r="B1126" t="inlineStr"/>
+      <c r="C1126" t="inlineStr"/>
+      <c r="D1126" t="inlineStr"/>
+      <c r="E1126" t="inlineStr"/>
+      <c r="F1126" t="inlineStr"/>
+      <c r="G1126" t="inlineStr"/>
+      <c r="H1126" t="inlineStr"/>
+      <c r="I1126" t="inlineStr"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr"/>
+      <c r="C1127" t="inlineStr"/>
+      <c r="D1127" t="inlineStr"/>
+      <c r="E1127" t="inlineStr"/>
+      <c r="F1127" t="inlineStr"/>
+      <c r="G1127" t="inlineStr"/>
+      <c r="H1127" t="inlineStr"/>
+      <c r="I1127" t="inlineStr"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Scenic Tours']</t>
+        </is>
+      </c>
+      <c r="B1128" t="inlineStr"/>
+      <c r="C1128" t="inlineStr"/>
+      <c r="D1128" t="inlineStr"/>
+      <c r="E1128" t="inlineStr"/>
+      <c r="F1128" t="inlineStr"/>
+      <c r="G1128" t="inlineStr"/>
+      <c r="H1128" t="inlineStr"/>
+      <c r="I1128" t="inlineStr"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 370068P3</t>
+        </is>
+      </c>
+      <c r="B1129" t="inlineStr"/>
+      <c r="C1129" t="inlineStr"/>
+      <c r="D1129" t="inlineStr"/>
+      <c r="E1129" t="inlineStr"/>
+      <c r="F1129" t="inlineStr"/>
+      <c r="G1129" t="inlineStr"/>
+      <c r="H1129" t="inlineStr"/>
+      <c r="I1129" t="inlineStr"/>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>Summarized description: Sitges is one of the most interesting coast towns in the mediterranean sea. Classic Car Tour around Sitges and surroundings. Delicious Paella meanwhile you learn more about our history and culture.</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr"/>
+      <c r="C1130" t="inlineStr"/>
+      <c r="D1130" t="inlineStr"/>
+      <c r="E1130" t="inlineStr"/>
+      <c r="F1130" t="inlineStr"/>
+      <c r="G1130" t="inlineStr"/>
+      <c r="H1130" t="inlineStr"/>
+      <c r="I1130" t="inlineStr"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>Title: Private Classic Car Tour Around Barcelona and Sitges with Lunch</t>
+        </is>
+      </c>
+      <c r="B1131" t="inlineStr"/>
+      <c r="C1131" t="inlineStr"/>
+      <c r="D1131" t="inlineStr"/>
+      <c r="E1131" t="inlineStr"/>
+      <c r="F1131" t="inlineStr"/>
+      <c r="G1131" t="inlineStr"/>
+      <c r="H1131" t="inlineStr"/>
+      <c r="I1131" t="inlineStr"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1132" t="inlineStr"/>
+      <c r="C1132" t="inlineStr"/>
+      <c r="D1132" t="inlineStr"/>
+      <c r="E1132" t="inlineStr"/>
+      <c r="F1132" t="inlineStr"/>
+      <c r="G1132" t="inlineStr"/>
+      <c r="H1132" t="inlineStr"/>
+      <c r="I1132" t="inlineStr"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1133" t="inlineStr"/>
+      <c r="C1133" t="inlineStr"/>
+      <c r="D1133" t="inlineStr"/>
+      <c r="E1133" t="inlineStr"/>
+      <c r="F1133" t="inlineStr"/>
+      <c r="G1133" t="inlineStr"/>
+      <c r="H1133" t="inlineStr"/>
+      <c r="I1133" t="inlineStr"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 90219P23</t>
+        </is>
+      </c>
+      <c r="B1134" t="inlineStr"/>
+      <c r="C1134" t="inlineStr"/>
+      <c r="D1134" t="inlineStr"/>
+      <c r="E1134" t="inlineStr"/>
+      <c r="F1134" t="inlineStr"/>
+      <c r="G1134" t="inlineStr"/>
+      <c r="H1134" t="inlineStr"/>
+      <c r="I1134" t="inlineStr"/>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>Summarized description: Sitges is known as the "Saint Tropez of Spain" due to its idyllic walk by the sea. The ancient Roman town of Tarragona is filled with magical corners of modernist charm. You will finish the day at the best urban beach in Europe, San Sebastian.</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr"/>
+      <c r="C1135" t="inlineStr"/>
+      <c r="D1135" t="inlineStr"/>
+      <c r="E1135" t="inlineStr"/>
+      <c r="F1135" t="inlineStr"/>
+      <c r="G1135" t="inlineStr"/>
+      <c r="H1135" t="inlineStr"/>
+      <c r="I1135" t="inlineStr"/>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>Title: Premium Barcelona Tour :Tarragona and Sitges( free Hotel pick up and drop off )</t>
+        </is>
+      </c>
+      <c r="B1136" t="inlineStr"/>
+      <c r="C1136" t="inlineStr"/>
+      <c r="D1136" t="inlineStr"/>
+      <c r="E1136" t="inlineStr"/>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="inlineStr"/>
+      <c r="H1136" t="inlineStr"/>
+      <c r="I1136" t="inlineStr"/>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr"/>
+      <c r="C1137" t="inlineStr"/>
+      <c r="D1137" t="inlineStr"/>
+      <c r="E1137" t="inlineStr"/>
+      <c r="F1137" t="inlineStr"/>
+      <c r="G1137" t="inlineStr"/>
+      <c r="H1137" t="inlineStr"/>
+      <c r="I1137" t="inlineStr"/>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1138" t="inlineStr"/>
+      <c r="C1138" t="inlineStr"/>
+      <c r="D1138" t="inlineStr"/>
+      <c r="E1138" t="inlineStr"/>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="inlineStr"/>
+      <c r="H1138" t="inlineStr"/>
+      <c r="I1138" t="inlineStr"/>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 50881P10</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr"/>
+      <c r="C1139" t="inlineStr"/>
+      <c r="D1139" t="inlineStr"/>
+      <c r="E1139" t="inlineStr"/>
+      <c r="F1139" t="inlineStr"/>
+      <c r="G1139" t="inlineStr"/>
+      <c r="H1139" t="inlineStr"/>
+      <c r="I1139" t="inlineStr"/>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>Summarized description: Visit 5 wineries, taste a glass of wine or cava and share a few minutes with the owners or professionals of the winery. Start and finish in Vilafranca del Penedès, just 45 minutes from the center of Barcelona by train or 30 minutes by Bus.</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr"/>
+      <c r="C1140" t="inlineStr"/>
+      <c r="D1140" t="inlineStr"/>
+      <c r="E1140" t="inlineStr"/>
+      <c r="F1140" t="inlineStr"/>
+      <c r="G1140" t="inlineStr"/>
+      <c r="H1140" t="inlineStr"/>
+      <c r="I1140" t="inlineStr"/>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>Title: TASTE and GO! 5 BIKE &amp; WINE TOUR - Visit 5 wineries with welcome and tasting cup</t>
+        </is>
+      </c>
+      <c r="B1141" t="inlineStr"/>
+      <c r="C1141" t="inlineStr"/>
+      <c r="D1141" t="inlineStr"/>
+      <c r="E1141" t="inlineStr"/>
+      <c r="F1141" t="inlineStr"/>
+      <c r="G1141" t="inlineStr"/>
+      <c r="H1141" t="inlineStr"/>
+      <c r="I1141" t="inlineStr"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr"/>
+      <c r="C1142" t="inlineStr"/>
+      <c r="D1142" t="inlineStr"/>
+      <c r="E1142" t="inlineStr"/>
+      <c r="F1142" t="inlineStr"/>
+      <c r="G1142" t="inlineStr"/>
+      <c r="H1142" t="inlineStr"/>
+      <c r="I1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr"/>
+      <c r="C1143" t="inlineStr"/>
+      <c r="D1143" t="inlineStr"/>
+      <c r="E1143" t="inlineStr"/>
+      <c r="F1143" t="inlineStr"/>
+      <c r="G1143" t="inlineStr"/>
+      <c r="H1143" t="inlineStr"/>
+      <c r="I1143" t="inlineStr"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 23558P7</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr"/>
+      <c r="C1144" t="inlineStr"/>
+      <c r="D1144" t="inlineStr"/>
+      <c r="E1144" t="inlineStr"/>
+      <c r="F1144" t="inlineStr"/>
+      <c r="G1144" t="inlineStr"/>
+      <c r="H1144" t="inlineStr"/>
+      <c r="I1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>Summarized description: Sitges is renowned worldwide for its Film Festival and Carnival. It is also known for its beaches, nightspots and historical sites. Learn about the wine production at a famous wine cellar in the Penedes.</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr"/>
+      <c r="C1145" t="inlineStr"/>
+      <c r="D1145" t="inlineStr"/>
+      <c r="E1145" t="inlineStr"/>
+      <c r="F1145" t="inlineStr"/>
+      <c r="G1145" t="inlineStr"/>
+      <c r="H1145" t="inlineStr"/>
+      <c r="I1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>Title: Private Tour: Sitges and Wine Tasting Penedés</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr"/>
+      <c r="C1146" t="inlineStr"/>
+      <c r="D1146" t="inlineStr"/>
+      <c r="E1146" t="inlineStr"/>
+      <c r="F1146" t="inlineStr"/>
+      <c r="G1146" t="inlineStr"/>
+      <c r="H1146" t="inlineStr"/>
+      <c r="I1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr"/>
+      <c r="C1147" t="inlineStr"/>
+      <c r="D1147" t="inlineStr"/>
+      <c r="E1147" t="inlineStr"/>
+      <c r="F1147" t="inlineStr"/>
+      <c r="G1147" t="inlineStr"/>
+      <c r="H1147" t="inlineStr"/>
+      <c r="I1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr"/>
+      <c r="C1148" t="inlineStr"/>
+      <c r="D1148" t="inlineStr"/>
+      <c r="E1148" t="inlineStr"/>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="inlineStr"/>
+      <c r="H1148" t="inlineStr"/>
+      <c r="I1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 101094P1</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr"/>
+      <c r="C1149" t="inlineStr"/>
+      <c r="D1149" t="inlineStr"/>
+      <c r="E1149" t="inlineStr"/>
+      <c r="F1149" t="inlineStr"/>
+      <c r="G1149" t="inlineStr"/>
+      <c r="H1149" t="inlineStr"/>
+      <c r="I1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>Summarized description: Sitges is an incredible Catalan Mediterranean village among the beautiful modernist buildings. You'll learn the history of this contemporary city and its ancient roots.</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr"/>
+      <c r="C1150" t="inlineStr"/>
+      <c r="D1150" t="inlineStr"/>
+      <c r="E1150" t="inlineStr"/>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="inlineStr"/>
+      <c r="H1150" t="inlineStr"/>
+      <c r="I1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>Title: Sitges: Food &amp; Natural wine Tasting</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr"/>
+      <c r="C1151" t="inlineStr"/>
+      <c r="D1151" t="inlineStr"/>
+      <c r="E1151" t="inlineStr"/>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="inlineStr"/>
+      <c r="H1151" t="inlineStr"/>
+      <c r="I1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr"/>
+      <c r="C1152" t="inlineStr"/>
+      <c r="D1152" t="inlineStr"/>
+      <c r="E1152" t="inlineStr"/>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="inlineStr"/>
+      <c r="H1152" t="inlineStr"/>
+      <c r="I1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr"/>
+      <c r="C1153" t="inlineStr"/>
+      <c r="D1153" t="inlineStr"/>
+      <c r="E1153" t="inlineStr"/>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="inlineStr"/>
+      <c r="H1153" t="inlineStr"/>
+      <c r="I1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr"/>
+      <c r="C1154" t="inlineStr"/>
+      <c r="D1154" t="inlineStr"/>
+      <c r="E1154" t="inlineStr"/>
+      <c r="F1154" t="inlineStr"/>
+      <c r="G1154" t="inlineStr"/>
+      <c r="H1154" t="inlineStr"/>
+      <c r="I1154" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
